--- a/サーティファイC言語検定_1級.xlsx
+++ b/サーティファイC言語検定_1級.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="10950" windowHeight="8070" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="10950" windowHeight="8070"/>
   </bookViews>
   <sheets>
-    <sheet name="進捗管理表" sheetId="1" r:id="rId1"/>
+    <sheet name="スケジュール管理表" sheetId="1" r:id="rId1"/>
     <sheet name="正答率" sheetId="6" r:id="rId2"/>
     <sheet name="質問の掲示板" sheetId="7" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>本日</t>
     <rPh sb="0" eb="2">
@@ -101,13 +101,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>平均</t>
-    <rPh sb="0" eb="2">
-      <t>ヘイキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>望月(泰)</t>
     <rPh sb="0" eb="2">
       <t>モチヅキ</t>
@@ -328,33 +321,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>該当箇所</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>問1 or 問2</t>
-    <rPh sb="0" eb="1">
-      <t>トイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>トイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>番号は？</t>
-    <rPh sb="0" eb="2">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>質問内容</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
@@ -410,6 +376,107 @@
   </si>
   <si>
     <t>スケジュール管理表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーティファイC言語で問題についてやベースプログラムについて</t>
+    <rPh sb="8" eb="10">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分からないことがあったらここに下記の場所を入力してね。</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習総時間（参考）</t>
+    <rPh sb="0" eb="2">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1級レベル</t>
+    <rPh sb="1" eb="2">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2級レベル</t>
+    <rPh sb="1" eb="2">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3級レベル</t>
+    <rPh sb="1" eb="2">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>級</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※３級の学習時間は、初学者の方が要する学習時間の目安であり、２級の学習時間は、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　 ３級取得後に要する概ねの学習時間の目安、１級は２級取得後の時間としています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1級取得までに必要なボーダーライン総時間</t>
+    <rPh sb="1" eb="2">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ソウジカン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -420,7 +487,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,6 +506,15 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -500,7 +576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -542,6 +618,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,16 +668,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -604,7 +686,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17554575" y="1924050"/>
+          <a:off x="20145375" y="266700"/>
           <a:ext cx="771525" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -647,16 +729,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -665,7 +747,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25460325" y="1905000"/>
+          <a:off x="28194000" y="228600"/>
           <a:ext cx="771525" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -701,6 +783,72 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>!!</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形吹き出し 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10477500" y="219075"/>
+          <a:ext cx="1095375" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>南部さん</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>結婚式</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -994,13 +1142,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:BK23"/>
+  <dimension ref="B2:BM29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="15" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1010,778 +1156,818 @@
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="23" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="45" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="46" max="54" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="55" max="61" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="9" max="14" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="48" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="49" max="53" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="54" max="60" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="6" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:63" ht="18.75">
+    <row r="2" spans="2:65" ht="18.75">
       <c r="B2" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="2:63" ht="18.75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:65" ht="18.75">
       <c r="B3" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="2:63">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:65">
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:65">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="7">
         <f ca="1">TODAY()</f>
+        <v>43213</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="5">
+        <f>DATE($C$22,$C$23,22)</f>
         <v>43212</v>
       </c>
-    </row>
-    <row r="6" spans="2:63">
+      <c r="J5" s="5">
+        <f>I5+1</f>
+        <v>43213</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" ref="K5:AI5" si="0">J5+1</f>
+        <v>43214</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="0"/>
+        <v>43215</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="0"/>
+        <v>43216</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="0"/>
+        <v>43217</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="0"/>
+        <v>43218</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="0"/>
+        <v>43219</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="0"/>
+        <v>43220</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="0"/>
+        <v>43221</v>
+      </c>
+      <c r="S5" s="5">
+        <f t="shared" si="0"/>
+        <v>43222</v>
+      </c>
+      <c r="T5" s="9">
+        <f t="shared" si="0"/>
+        <v>43223</v>
+      </c>
+      <c r="U5" s="9">
+        <f t="shared" si="0"/>
+        <v>43224</v>
+      </c>
+      <c r="V5" s="5">
+        <f t="shared" si="0"/>
+        <v>43225</v>
+      </c>
+      <c r="W5" s="5">
+        <f t="shared" si="0"/>
+        <v>43226</v>
+      </c>
+      <c r="X5" s="5">
+        <f t="shared" si="0"/>
+        <v>43227</v>
+      </c>
+      <c r="Y5" s="5">
+        <f t="shared" si="0"/>
+        <v>43228</v>
+      </c>
+      <c r="Z5" s="5">
+        <f t="shared" si="0"/>
+        <v>43229</v>
+      </c>
+      <c r="AA5" s="5">
+        <f t="shared" si="0"/>
+        <v>43230</v>
+      </c>
+      <c r="AB5" s="5">
+        <f t="shared" si="0"/>
+        <v>43231</v>
+      </c>
+      <c r="AC5" s="5">
+        <f t="shared" si="0"/>
+        <v>43232</v>
+      </c>
+      <c r="AD5" s="5">
+        <f t="shared" si="0"/>
+        <v>43233</v>
+      </c>
+      <c r="AE5" s="5">
+        <f t="shared" si="0"/>
+        <v>43234</v>
+      </c>
+      <c r="AF5" s="5">
+        <f t="shared" si="0"/>
+        <v>43235</v>
+      </c>
+      <c r="AG5" s="5">
+        <f t="shared" si="0"/>
+        <v>43236</v>
+      </c>
+      <c r="AH5" s="5">
+        <f t="shared" si="0"/>
+        <v>43237</v>
+      </c>
+      <c r="AI5" s="5">
+        <f t="shared" si="0"/>
+        <v>43238</v>
+      </c>
+      <c r="AJ5" s="5">
+        <f>AI5+1</f>
+        <v>43239</v>
+      </c>
+      <c r="AK5" s="5">
+        <f t="shared" ref="AK5:AW5" si="1">AJ5+1</f>
+        <v>43240</v>
+      </c>
+      <c r="AL5" s="5">
+        <f t="shared" si="1"/>
+        <v>43241</v>
+      </c>
+      <c r="AM5" s="5">
+        <f t="shared" si="1"/>
+        <v>43242</v>
+      </c>
+      <c r="AN5" s="5">
+        <f t="shared" si="1"/>
+        <v>43243</v>
+      </c>
+      <c r="AO5" s="5">
+        <f t="shared" si="1"/>
+        <v>43244</v>
+      </c>
+      <c r="AP5" s="5">
+        <f t="shared" si="1"/>
+        <v>43245</v>
+      </c>
+      <c r="AQ5" s="5">
+        <f t="shared" si="1"/>
+        <v>43246</v>
+      </c>
+      <c r="AR5" s="5">
+        <f t="shared" si="1"/>
+        <v>43247</v>
+      </c>
+      <c r="AS5" s="5">
+        <f t="shared" si="1"/>
+        <v>43248</v>
+      </c>
+      <c r="AT5" s="5">
+        <f t="shared" si="1"/>
+        <v>43249</v>
+      </c>
+      <c r="AU5" s="5">
+        <f t="shared" si="1"/>
+        <v>43250</v>
+      </c>
+      <c r="AV5" s="5">
+        <f t="shared" si="1"/>
+        <v>43251</v>
+      </c>
+      <c r="AW5" s="5">
+        <f t="shared" si="1"/>
+        <v>43252</v>
+      </c>
+      <c r="AX5" s="5">
+        <f t="shared" ref="AX5" si="2">AW5+1</f>
+        <v>43253</v>
+      </c>
+      <c r="AY5" s="5">
+        <f t="shared" ref="AY5" si="3">AX5+1</f>
+        <v>43254</v>
+      </c>
+      <c r="AZ5" s="5">
+        <f t="shared" ref="AZ5" si="4">AY5+1</f>
+        <v>43255</v>
+      </c>
+      <c r="BA5" s="5">
+        <f t="shared" ref="BA5" si="5">AZ5+1</f>
+        <v>43256</v>
+      </c>
+      <c r="BB5" s="5">
+        <f t="shared" ref="BB5" si="6">BA5+1</f>
+        <v>43257</v>
+      </c>
+      <c r="BC5" s="5">
+        <f t="shared" ref="BC5" si="7">BB5+1</f>
+        <v>43258</v>
+      </c>
+      <c r="BD5" s="5">
+        <f t="shared" ref="BD5" si="8">BC5+1</f>
+        <v>43259</v>
+      </c>
+      <c r="BE5" s="5">
+        <f t="shared" ref="BE5" si="9">BD5+1</f>
+        <v>43260</v>
+      </c>
+      <c r="BF5" s="5">
+        <f t="shared" ref="BF5" si="10">BE5+1</f>
+        <v>43261</v>
+      </c>
+      <c r="BG5" s="5">
+        <f t="shared" ref="BG5" si="11">BF5+1</f>
+        <v>43262</v>
+      </c>
+      <c r="BH5" s="5">
+        <f t="shared" ref="BH5" si="12">BG5+1</f>
+        <v>43263</v>
+      </c>
+      <c r="BI5" s="5">
+        <f t="shared" ref="BI5" si="13">BH5+1</f>
+        <v>43264</v>
+      </c>
+      <c r="BJ5" s="5">
+        <f t="shared" ref="BJ5" si="14">BI5+1</f>
+        <v>43265</v>
+      </c>
+      <c r="BK5" s="5">
+        <f t="shared" ref="BK5" si="15">BJ5+1</f>
+        <v>43266</v>
+      </c>
+      <c r="BL5" s="5">
+        <f t="shared" ref="BL5" si="16">BK5+1</f>
+        <v>43267</v>
+      </c>
+      <c r="BM5" s="5">
+        <f t="shared" ref="BM5" si="17">BL5+1</f>
+        <v>43268</v>
+      </c>
+    </row>
+    <row r="6" spans="2:65">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="7">
         <v>43268</v>
       </c>
-    </row>
-    <row r="7" spans="2:63">
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f>TEXT(I5,"aaa")</f>
+        <v>日</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f t="shared" ref="J6:AW6" si="18">TEXT(J5,"aaa")</f>
+        <v>月</v>
+      </c>
+      <c r="K6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>火</v>
+      </c>
+      <c r="L6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>水</v>
+      </c>
+      <c r="M6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>木</v>
+      </c>
+      <c r="N6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>金</v>
+      </c>
+      <c r="O6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>土</v>
+      </c>
+      <c r="P6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>日</v>
+      </c>
+      <c r="Q6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>月</v>
+      </c>
+      <c r="R6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>火</v>
+      </c>
+      <c r="S6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>水</v>
+      </c>
+      <c r="T6" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>木</v>
+      </c>
+      <c r="U6" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>金</v>
+      </c>
+      <c r="V6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>土</v>
+      </c>
+      <c r="W6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>日</v>
+      </c>
+      <c r="X6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>月</v>
+      </c>
+      <c r="Y6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>火</v>
+      </c>
+      <c r="Z6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>水</v>
+      </c>
+      <c r="AA6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>木</v>
+      </c>
+      <c r="AB6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>金</v>
+      </c>
+      <c r="AC6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>土</v>
+      </c>
+      <c r="AD6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>日</v>
+      </c>
+      <c r="AE6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>月</v>
+      </c>
+      <c r="AF6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>火</v>
+      </c>
+      <c r="AG6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>水</v>
+      </c>
+      <c r="AH6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>木</v>
+      </c>
+      <c r="AI6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>金</v>
+      </c>
+      <c r="AJ6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>土</v>
+      </c>
+      <c r="AK6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>日</v>
+      </c>
+      <c r="AL6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>月</v>
+      </c>
+      <c r="AM6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>火</v>
+      </c>
+      <c r="AN6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>水</v>
+      </c>
+      <c r="AO6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>木</v>
+      </c>
+      <c r="AP6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>金</v>
+      </c>
+      <c r="AQ6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>土</v>
+      </c>
+      <c r="AR6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>日</v>
+      </c>
+      <c r="AS6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>月</v>
+      </c>
+      <c r="AT6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>火</v>
+      </c>
+      <c r="AU6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>水</v>
+      </c>
+      <c r="AV6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>木</v>
+      </c>
+      <c r="AW6" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>金</v>
+      </c>
+      <c r="AX6" s="4" t="str">
+        <f t="shared" ref="AX6:BM6" si="19">TEXT(AX5,"aaa")</f>
+        <v>土</v>
+      </c>
+      <c r="AY6" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>日</v>
+      </c>
+      <c r="AZ6" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>月</v>
+      </c>
+      <c r="BA6" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>火</v>
+      </c>
+      <c r="BB6" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>水</v>
+      </c>
+      <c r="BC6" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>木</v>
+      </c>
+      <c r="BD6" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>金</v>
+      </c>
+      <c r="BE6" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>土</v>
+      </c>
+      <c r="BF6" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>日</v>
+      </c>
+      <c r="BG6" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>月</v>
+      </c>
+      <c r="BH6" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>火</v>
+      </c>
+      <c r="BI6" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>水</v>
+      </c>
+      <c r="BJ6" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>木</v>
+      </c>
+      <c r="BK6" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>金</v>
+      </c>
+      <c r="BL6" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>土</v>
+      </c>
+      <c r="BM6" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>日</v>
+      </c>
+    </row>
+    <row r="7" spans="2:65">
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="7">
         <v>43247</v>
       </c>
-    </row>
-    <row r="8" spans="2:63">
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6">
+        <f>SUM($I7:$BL7)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
+      <c r="BL7" s="4"/>
+      <c r="BM7" s="4"/>
+    </row>
+    <row r="8" spans="2:65">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="4">
         <f ca="1">C6-C5</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:63">
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="6">
+        <f>SUM($I8:$BL8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
+      <c r="BL8" s="4"/>
+      <c r="BM8" s="4"/>
+    </row>
+    <row r="9" spans="2:65">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="2:63">
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="6">
+        <f>SUM($I9:$BL9)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
+      <c r="BE9" s="4"/>
+      <c r="BF9" s="4"/>
+      <c r="BG9" s="4"/>
+      <c r="BH9" s="4"/>
+      <c r="BI9" s="4"/>
+      <c r="BJ9" s="4"/>
+      <c r="BK9" s="4"/>
+      <c r="BL9" s="4"/>
+      <c r="BM9" s="4"/>
+    </row>
+    <row r="10" spans="2:65">
       <c r="B10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="2:65">
+      <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="2:63">
-      <c r="B11" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="2:63">
+    <row r="12" spans="2:65">
       <c r="B12" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="2:63">
+    <row r="13" spans="2:65">
       <c r="B13" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="2:63">
+    <row r="14" spans="2:65">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="2:63">
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:63">
-      <c r="D16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="5">
-        <f>DATE($C$22,$C$23,22)</f>
-        <v>43212</v>
-      </c>
-      <c r="G16" s="5">
-        <f>F16+1</f>
-        <v>43213</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" ref="H16:AF16" si="0">G16+1</f>
-        <v>43214</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="0"/>
-        <v>43215</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="0"/>
-        <v>43216</v>
-      </c>
-      <c r="K16" s="5">
-        <f t="shared" si="0"/>
-        <v>43217</v>
-      </c>
-      <c r="L16" s="5">
-        <f t="shared" si="0"/>
-        <v>43218</v>
-      </c>
-      <c r="M16" s="5">
-        <f t="shared" si="0"/>
-        <v>43219</v>
-      </c>
-      <c r="N16" s="5">
-        <f t="shared" si="0"/>
-        <v>43220</v>
-      </c>
-      <c r="O16" s="5">
-        <f t="shared" si="0"/>
-        <v>43221</v>
-      </c>
-      <c r="P16" s="5">
-        <f t="shared" si="0"/>
-        <v>43222</v>
-      </c>
-      <c r="Q16" s="9">
-        <f t="shared" si="0"/>
-        <v>43223</v>
-      </c>
-      <c r="R16" s="9">
-        <f t="shared" si="0"/>
-        <v>43224</v>
-      </c>
-      <c r="S16" s="5">
-        <f t="shared" si="0"/>
-        <v>43225</v>
-      </c>
-      <c r="T16" s="5">
-        <f t="shared" si="0"/>
-        <v>43226</v>
-      </c>
-      <c r="U16" s="5">
-        <f t="shared" si="0"/>
-        <v>43227</v>
-      </c>
-      <c r="V16" s="5">
-        <f t="shared" si="0"/>
-        <v>43228</v>
-      </c>
-      <c r="W16" s="5">
-        <f t="shared" si="0"/>
-        <v>43229</v>
-      </c>
-      <c r="X16" s="5">
-        <f t="shared" si="0"/>
-        <v>43230</v>
-      </c>
-      <c r="Y16" s="5">
-        <f t="shared" si="0"/>
-        <v>43231</v>
-      </c>
-      <c r="Z16" s="5">
-        <f t="shared" si="0"/>
-        <v>43232</v>
-      </c>
-      <c r="AA16" s="5">
-        <f t="shared" si="0"/>
-        <v>43233</v>
-      </c>
-      <c r="AB16" s="5">
-        <f t="shared" si="0"/>
-        <v>43234</v>
-      </c>
-      <c r="AC16" s="5">
-        <f t="shared" si="0"/>
-        <v>43235</v>
-      </c>
-      <c r="AD16" s="5">
-        <f t="shared" si="0"/>
-        <v>43236</v>
-      </c>
-      <c r="AE16" s="5">
-        <f t="shared" si="0"/>
-        <v>43237</v>
-      </c>
-      <c r="AF16" s="5">
-        <f t="shared" si="0"/>
-        <v>43238</v>
-      </c>
-      <c r="AG16" s="5">
-        <f>AF16+1</f>
-        <v>43239</v>
-      </c>
-      <c r="AH16" s="5">
-        <f t="shared" ref="AH16:AT16" si="1">AG16+1</f>
-        <v>43240</v>
-      </c>
-      <c r="AI16" s="5">
-        <f t="shared" si="1"/>
-        <v>43241</v>
-      </c>
-      <c r="AJ16" s="5">
-        <f t="shared" si="1"/>
-        <v>43242</v>
-      </c>
-      <c r="AK16" s="5">
-        <f t="shared" si="1"/>
-        <v>43243</v>
-      </c>
-      <c r="AL16" s="5">
-        <f t="shared" si="1"/>
-        <v>43244</v>
-      </c>
-      <c r="AM16" s="5">
-        <f t="shared" si="1"/>
-        <v>43245</v>
-      </c>
-      <c r="AN16" s="5">
-        <f t="shared" si="1"/>
-        <v>43246</v>
-      </c>
-      <c r="AO16" s="5">
-        <f t="shared" si="1"/>
-        <v>43247</v>
-      </c>
-      <c r="AP16" s="5">
-        <f t="shared" si="1"/>
-        <v>43248</v>
-      </c>
-      <c r="AQ16" s="5">
-        <f t="shared" si="1"/>
-        <v>43249</v>
-      </c>
-      <c r="AR16" s="5">
-        <f t="shared" si="1"/>
-        <v>43250</v>
-      </c>
-      <c r="AS16" s="5">
-        <f t="shared" si="1"/>
-        <v>43251</v>
-      </c>
-      <c r="AT16" s="5">
-        <f t="shared" si="1"/>
-        <v>43252</v>
-      </c>
-      <c r="AU16" s="5">
-        <f t="shared" ref="AU16" si="2">AT16+1</f>
-        <v>43253</v>
-      </c>
-      <c r="AV16" s="5">
-        <f t="shared" ref="AV16" si="3">AU16+1</f>
-        <v>43254</v>
-      </c>
-      <c r="AW16" s="5">
-        <f t="shared" ref="AW16" si="4">AV16+1</f>
-        <v>43255</v>
-      </c>
-      <c r="AX16" s="5">
-        <f t="shared" ref="AX16" si="5">AW16+1</f>
-        <v>43256</v>
-      </c>
-      <c r="AY16" s="5">
-        <f t="shared" ref="AY16" si="6">AX16+1</f>
-        <v>43257</v>
-      </c>
-      <c r="AZ16" s="5">
-        <f t="shared" ref="AZ16" si="7">AY16+1</f>
-        <v>43258</v>
-      </c>
-      <c r="BA16" s="5">
-        <f t="shared" ref="BA16" si="8">AZ16+1</f>
-        <v>43259</v>
-      </c>
-      <c r="BB16" s="5">
-        <f t="shared" ref="BB16" si="9">BA16+1</f>
-        <v>43260</v>
-      </c>
-      <c r="BC16" s="5">
-        <f t="shared" ref="BC16" si="10">BB16+1</f>
-        <v>43261</v>
-      </c>
-      <c r="BD16" s="5">
-        <f t="shared" ref="BD16" si="11">BC16+1</f>
-        <v>43262</v>
-      </c>
-      <c r="BE16" s="5">
-        <f t="shared" ref="BE16" si="12">BD16+1</f>
-        <v>43263</v>
-      </c>
-      <c r="BF16" s="5">
-        <f t="shared" ref="BF16" si="13">BE16+1</f>
-        <v>43264</v>
-      </c>
-      <c r="BG16" s="5">
-        <f t="shared" ref="BG16" si="14">BF16+1</f>
-        <v>43265</v>
-      </c>
-      <c r="BH16" s="5">
-        <f t="shared" ref="BH16" si="15">BG16+1</f>
-        <v>43266</v>
-      </c>
-      <c r="BI16" s="5">
-        <f t="shared" ref="BI16" si="16">BH16+1</f>
-        <v>43267</v>
-      </c>
-      <c r="BJ16" s="5">
-        <f t="shared" ref="BJ16" si="17">BI16+1</f>
-        <v>43268</v>
-      </c>
-      <c r="BK16" s="2"/>
-    </row>
-    <row r="17" spans="2:62">
-      <c r="D17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="4" t="str">
-        <f>TEXT(F16,"aaa")</f>
-        <v>日</v>
-      </c>
-      <c r="G17" s="4" t="str">
-        <f t="shared" ref="G17:AT17" si="18">TEXT(G16,"aaa")</f>
-        <v>月</v>
-      </c>
-      <c r="H17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>火</v>
-      </c>
-      <c r="I17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>水</v>
-      </c>
-      <c r="J17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>木</v>
-      </c>
-      <c r="K17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>金</v>
-      </c>
-      <c r="L17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>土</v>
-      </c>
-      <c r="M17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>日</v>
-      </c>
-      <c r="N17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>月</v>
-      </c>
-      <c r="O17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>火</v>
-      </c>
-      <c r="P17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>水</v>
-      </c>
-      <c r="Q17" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>木</v>
-      </c>
-      <c r="R17" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v>金</v>
-      </c>
-      <c r="S17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>土</v>
-      </c>
-      <c r="T17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>日</v>
-      </c>
-      <c r="U17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>月</v>
-      </c>
-      <c r="V17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>火</v>
-      </c>
-      <c r="W17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>水</v>
-      </c>
-      <c r="X17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>木</v>
-      </c>
-      <c r="Y17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>金</v>
-      </c>
-      <c r="Z17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>土</v>
-      </c>
-      <c r="AA17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>日</v>
-      </c>
-      <c r="AB17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>月</v>
-      </c>
-      <c r="AC17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>火</v>
-      </c>
-      <c r="AD17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>水</v>
-      </c>
-      <c r="AE17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>木</v>
-      </c>
-      <c r="AF17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>金</v>
-      </c>
-      <c r="AG17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>土</v>
-      </c>
-      <c r="AH17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>日</v>
-      </c>
-      <c r="AI17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>月</v>
-      </c>
-      <c r="AJ17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>火</v>
-      </c>
-      <c r="AK17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>水</v>
-      </c>
-      <c r="AL17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>木</v>
-      </c>
-      <c r="AM17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>金</v>
-      </c>
-      <c r="AN17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>土</v>
-      </c>
-      <c r="AO17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>日</v>
-      </c>
-      <c r="AP17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>月</v>
-      </c>
-      <c r="AQ17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>火</v>
-      </c>
-      <c r="AR17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>水</v>
-      </c>
-      <c r="AS17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>木</v>
-      </c>
-      <c r="AT17" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>金</v>
-      </c>
-      <c r="AU17" s="4" t="str">
-        <f t="shared" ref="AU17:BJ17" si="19">TEXT(AU16,"aaa")</f>
-        <v>土</v>
-      </c>
-      <c r="AV17" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>日</v>
-      </c>
-      <c r="AW17" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>月</v>
-      </c>
-      <c r="AX17" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>火</v>
-      </c>
-      <c r="AY17" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>水</v>
-      </c>
-      <c r="AZ17" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>木</v>
-      </c>
-      <c r="BA17" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>金</v>
-      </c>
-      <c r="BB17" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>土</v>
-      </c>
-      <c r="BC17" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>日</v>
-      </c>
-      <c r="BD17" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>月</v>
-      </c>
-      <c r="BE17" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>火</v>
-      </c>
-      <c r="BF17" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>水</v>
-      </c>
-      <c r="BG17" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>木</v>
-      </c>
-      <c r="BH17" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>金</v>
-      </c>
-      <c r="BI17" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>土</v>
-      </c>
-      <c r="BJ17" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>日</v>
-      </c>
-    </row>
-    <row r="18" spans="2:62">
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="6">
-        <f>SUM($F18:$BI18)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="4"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
-      <c r="BF18" s="4"/>
-      <c r="BG18" s="4"/>
-      <c r="BH18" s="4"/>
-      <c r="BI18" s="4"/>
-      <c r="BJ18" s="4"/>
-    </row>
-    <row r="19" spans="2:62">
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="6">
-        <f t="shared" ref="D19:D20" si="20">SUM($F19:$BI19)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
-      <c r="BB19" s="4"/>
-      <c r="BC19" s="4"/>
-      <c r="BD19" s="4"/>
-      <c r="BE19" s="4"/>
-      <c r="BF19" s="4"/>
-      <c r="BG19" s="4"/>
-      <c r="BH19" s="4"/>
-      <c r="BI19" s="4"/>
-      <c r="BJ19" s="4"/>
-    </row>
-    <row r="20" spans="2:62">
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="4"/>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="4"/>
-      <c r="BB20" s="4"/>
-      <c r="BC20" s="4"/>
-      <c r="BD20" s="4"/>
-      <c r="BE20" s="4"/>
-      <c r="BF20" s="4"/>
-      <c r="BG20" s="4"/>
-      <c r="BH20" s="4"/>
-      <c r="BI20" s="4"/>
-      <c r="BJ20" s="4"/>
-    </row>
-    <row r="22" spans="2:62" hidden="1">
+    <row r="15" spans="2:65">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:65">
+      <c r="B16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ16" s="2"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="4">
+        <v>70</v>
+      </c>
+      <c r="E17" s="15">
+        <f>($C$17+$C$18*2+$C$19*3)/6</f>
+        <v>100</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" hidden="1">
       <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
@@ -1789,7 +1975,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="2:62" hidden="1">
+    <row r="23" spans="2:6" hidden="1">
       <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
@@ -1799,14 +1985,22 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F16:BJ20">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>F$17="土"</formula>
+  <conditionalFormatting sqref="I5:BM9">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>I$6="土"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>F$17="日"</formula>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>I$6="日"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1819,55 +2013,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="3" spans="2:13">
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:13">
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1882,7 +2076,7 @@
     <row r="6" spans="2:13">
       <c r="C6" s="13"/>
       <c r="D6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1897,7 +2091,7 @@
     <row r="7" spans="2:13">
       <c r="C7" s="13"/>
       <c r="D7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1912,7 +2106,7 @@
     <row r="8" spans="2:13">
       <c r="C8" s="13"/>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1927,7 +2121,7 @@
     <row r="9" spans="2:13">
       <c r="C9" s="13"/>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1942,7 +2136,7 @@
     <row r="10" spans="2:13">
       <c r="C10" s="13"/>
       <c r="D10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1957,7 +2151,7 @@
     <row r="11" spans="2:13">
       <c r="C11" s="13"/>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1972,7 +2166,7 @@
     <row r="12" spans="2:13">
       <c r="C12" s="13"/>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1987,7 +2181,7 @@
     <row r="13" spans="2:13">
       <c r="C13" s="13"/>
       <c r="D13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2002,7 +2196,7 @@
     <row r="14" spans="2:13">
       <c r="C14" s="13"/>
       <c r="D14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2017,7 +2211,7 @@
     <row r="15" spans="2:13">
       <c r="C15" s="13"/>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2032,7 +2226,7 @@
     <row r="16" spans="2:13">
       <c r="C16" s="13"/>
       <c r="D16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2047,7 +2241,7 @@
     <row r="17" spans="3:13">
       <c r="C17" s="13"/>
       <c r="D17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2061,40 +2255,40 @@
     </row>
     <row r="18" spans="3:13">
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="3:13">
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="3:13">
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="3:13">
       <c r="D21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="3:13">
       <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="3:13">
       <c r="D23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="3:13">
       <c r="D24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2108,58 +2302,161 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H8"/>
+  <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="7" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="D5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7">
+    <row r="7" spans="2:5" ht="39.75" customHeight="1">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="2:5" ht="39.75" customHeight="1">
+      <c r="B8" s="4">
         <f>B7+1</f>
         <v>2</v>
       </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="2:5" ht="39.75" customHeight="1">
+      <c r="B9" s="4">
+        <f t="shared" ref="B9:B15" si="0">B8+1</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:5" ht="36" customHeight="1">
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" ht="36" customHeight="1">
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" ht="36" customHeight="1">
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" ht="36" customHeight="1">
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" ht="36" customHeight="1">
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" ht="36" customHeight="1">
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" ht="36" customHeight="1">
+      <c r="B16" s="4">
+        <f t="shared" ref="B16:B19" si="1">B15+1</f>
+        <v>10</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" ht="36" customHeight="1">
+      <c r="B17" s="4">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5" ht="36" customHeight="1">
+      <c r="B18" s="4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="2:5" ht="36" customHeight="1">
+      <c r="B19" s="4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/サーティファイC言語検定_1級.xlsx
+++ b/サーティファイC言語検定_1級.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="スケジュール管理表" sheetId="1" r:id="rId1"/>
-    <sheet name="正答率" sheetId="6" r:id="rId2"/>
+    <sheet name="正答率" sheetId="6" state="hidden" r:id="rId2"/>
     <sheet name="質問の掲示板" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>本日</t>
     <rPh sb="0" eb="2">
@@ -237,18 +237,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(2)-①</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(2)-②</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>第23回</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
@@ -256,40 +244,6 @@
     <rPh sb="3" eb="4">
       <t>カイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(3)-①</t>
-  </si>
-  <si>
-    <t>(3)-②</t>
-  </si>
-  <si>
-    <t>(2)-③</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(2)-④</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(3)-③</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(4)-①</t>
-  </si>
-  <si>
-    <t>(4)-②</t>
-  </si>
-  <si>
-    <t>(4)-③</t>
-  </si>
-  <si>
-    <t>(4)-④</t>
-  </si>
-  <si>
-    <t>(4)-⑤</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -576,7 +530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -616,14 +570,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,13 +625,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -729,13 +686,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>63</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>65</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -790,13 +747,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -1142,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:BM29"/>
+  <dimension ref="B2:BP29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -1156,42 +1113,43 @@
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
-    <col min="9" max="14" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="48" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="49" max="53" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="54" max="60" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="6" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="12" max="17" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="51" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="52" max="56" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="57" max="63" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="6" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:65" ht="18.75">
+    <row r="2" spans="2:68" ht="18.75">
       <c r="B2" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="2:65" ht="18.75">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:68" ht="18.75">
       <c r="B3" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:65">
-      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:68">
+      <c r="L4" t="s">
         <v>6</v>
       </c>
-      <c r="R4" t="s">
+      <c r="U4" t="s">
         <v>7</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AZ4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:65">
+    <row r="5" spans="2:68">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1199,494 +1157,491 @@
         <f ca="1">TODAY()</f>
         <v>43213</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="5">
+      <c r="L5" s="5">
         <f>DATE($C$22,$C$23,22)</f>
         <v>43212</v>
       </c>
-      <c r="J5" s="5">
-        <f>I5+1</f>
+      <c r="M5" s="5">
+        <f>L5+1</f>
         <v>43213</v>
       </c>
-      <c r="K5" s="5">
-        <f t="shared" ref="K5:AI5" si="0">J5+1</f>
+      <c r="N5" s="5">
+        <f t="shared" ref="N5:AL5" si="0">M5+1</f>
         <v>43214</v>
       </c>
-      <c r="L5" s="5">
+      <c r="O5" s="5">
         <f t="shared" si="0"/>
         <v>43215</v>
       </c>
-      <c r="M5" s="5">
+      <c r="P5" s="5">
         <f t="shared" si="0"/>
         <v>43216</v>
       </c>
-      <c r="N5" s="5">
+      <c r="Q5" s="5">
         <f t="shared" si="0"/>
         <v>43217</v>
       </c>
-      <c r="O5" s="5">
+      <c r="R5" s="5">
         <f t="shared" si="0"/>
         <v>43218</v>
       </c>
-      <c r="P5" s="5">
+      <c r="S5" s="5">
         <f t="shared" si="0"/>
         <v>43219</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="T5" s="5">
         <f t="shared" si="0"/>
         <v>43220</v>
       </c>
-      <c r="R5" s="5">
+      <c r="U5" s="5">
         <f t="shared" si="0"/>
         <v>43221</v>
       </c>
-      <c r="S5" s="5">
+      <c r="V5" s="5">
         <f t="shared" si="0"/>
         <v>43222</v>
       </c>
-      <c r="T5" s="9">
+      <c r="W5" s="9">
         <f t="shared" si="0"/>
         <v>43223</v>
       </c>
-      <c r="U5" s="9">
+      <c r="X5" s="9">
         <f t="shared" si="0"/>
         <v>43224</v>
       </c>
-      <c r="V5" s="5">
+      <c r="Y5" s="5">
         <f t="shared" si="0"/>
         <v>43225</v>
       </c>
-      <c r="W5" s="5">
+      <c r="Z5" s="5">
         <f t="shared" si="0"/>
         <v>43226</v>
       </c>
-      <c r="X5" s="5">
+      <c r="AA5" s="5">
         <f t="shared" si="0"/>
         <v>43227</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="AB5" s="5">
         <f t="shared" si="0"/>
         <v>43228</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="AC5" s="5">
         <f t="shared" si="0"/>
         <v>43229</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AD5" s="5">
         <f t="shared" si="0"/>
         <v>43230</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AE5" s="5">
         <f t="shared" si="0"/>
         <v>43231</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AF5" s="5">
         <f t="shared" si="0"/>
         <v>43232</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AG5" s="5">
         <f t="shared" si="0"/>
         <v>43233</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AH5" s="5">
         <f t="shared" si="0"/>
         <v>43234</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AI5" s="5">
         <f t="shared" si="0"/>
         <v>43235</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AJ5" s="5">
         <f t="shared" si="0"/>
         <v>43236</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AK5" s="5">
         <f t="shared" si="0"/>
         <v>43237</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AL5" s="5">
         <f t="shared" si="0"/>
         <v>43238</v>
       </c>
-      <c r="AJ5" s="5">
-        <f>AI5+1</f>
+      <c r="AM5" s="5">
+        <f>AL5+1</f>
         <v>43239</v>
       </c>
-      <c r="AK5" s="5">
-        <f t="shared" ref="AK5:AW5" si="1">AJ5+1</f>
+      <c r="AN5" s="5">
+        <f t="shared" ref="AN5:AZ5" si="1">AM5+1</f>
         <v>43240</v>
       </c>
-      <c r="AL5" s="5">
+      <c r="AO5" s="5">
         <f t="shared" si="1"/>
         <v>43241</v>
       </c>
-      <c r="AM5" s="5">
+      <c r="AP5" s="5">
         <f t="shared" si="1"/>
         <v>43242</v>
       </c>
-      <c r="AN5" s="5">
+      <c r="AQ5" s="5">
         <f t="shared" si="1"/>
         <v>43243</v>
       </c>
-      <c r="AO5" s="5">
+      <c r="AR5" s="5">
         <f t="shared" si="1"/>
         <v>43244</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AS5" s="5">
         <f t="shared" si="1"/>
         <v>43245</v>
       </c>
-      <c r="AQ5" s="5">
+      <c r="AT5" s="5">
         <f t="shared" si="1"/>
         <v>43246</v>
       </c>
-      <c r="AR5" s="5">
+      <c r="AU5" s="5">
         <f t="shared" si="1"/>
         <v>43247</v>
       </c>
-      <c r="AS5" s="5">
+      <c r="AV5" s="5">
         <f t="shared" si="1"/>
         <v>43248</v>
       </c>
-      <c r="AT5" s="5">
+      <c r="AW5" s="5">
         <f t="shared" si="1"/>
         <v>43249</v>
       </c>
-      <c r="AU5" s="5">
+      <c r="AX5" s="5">
         <f t="shared" si="1"/>
         <v>43250</v>
       </c>
-      <c r="AV5" s="5">
+      <c r="AY5" s="5">
         <f t="shared" si="1"/>
         <v>43251</v>
       </c>
-      <c r="AW5" s="5">
+      <c r="AZ5" s="5">
         <f t="shared" si="1"/>
         <v>43252</v>
       </c>
-      <c r="AX5" s="5">
-        <f t="shared" ref="AX5" si="2">AW5+1</f>
+      <c r="BA5" s="5">
+        <f t="shared" ref="BA5" si="2">AZ5+1</f>
         <v>43253</v>
       </c>
-      <c r="AY5" s="5">
-        <f t="shared" ref="AY5" si="3">AX5+1</f>
+      <c r="BB5" s="5">
+        <f t="shared" ref="BB5" si="3">BA5+1</f>
         <v>43254</v>
       </c>
-      <c r="AZ5" s="5">
-        <f t="shared" ref="AZ5" si="4">AY5+1</f>
+      <c r="BC5" s="5">
+        <f t="shared" ref="BC5" si="4">BB5+1</f>
         <v>43255</v>
       </c>
-      <c r="BA5" s="5">
-        <f t="shared" ref="BA5" si="5">AZ5+1</f>
+      <c r="BD5" s="5">
+        <f t="shared" ref="BD5" si="5">BC5+1</f>
         <v>43256</v>
       </c>
-      <c r="BB5" s="5">
-        <f t="shared" ref="BB5" si="6">BA5+1</f>
+      <c r="BE5" s="5">
+        <f t="shared" ref="BE5" si="6">BD5+1</f>
         <v>43257</v>
       </c>
-      <c r="BC5" s="5">
-        <f t="shared" ref="BC5" si="7">BB5+1</f>
+      <c r="BF5" s="5">
+        <f t="shared" ref="BF5" si="7">BE5+1</f>
         <v>43258</v>
       </c>
-      <c r="BD5" s="5">
-        <f t="shared" ref="BD5" si="8">BC5+1</f>
+      <c r="BG5" s="5">
+        <f t="shared" ref="BG5" si="8">BF5+1</f>
         <v>43259</v>
       </c>
-      <c r="BE5" s="5">
-        <f t="shared" ref="BE5" si="9">BD5+1</f>
+      <c r="BH5" s="5">
+        <f t="shared" ref="BH5" si="9">BG5+1</f>
         <v>43260</v>
       </c>
-      <c r="BF5" s="5">
-        <f t="shared" ref="BF5" si="10">BE5+1</f>
+      <c r="BI5" s="5">
+        <f t="shared" ref="BI5" si="10">BH5+1</f>
         <v>43261</v>
       </c>
-      <c r="BG5" s="5">
-        <f t="shared" ref="BG5" si="11">BF5+1</f>
+      <c r="BJ5" s="5">
+        <f t="shared" ref="BJ5" si="11">BI5+1</f>
         <v>43262</v>
       </c>
-      <c r="BH5" s="5">
-        <f t="shared" ref="BH5" si="12">BG5+1</f>
+      <c r="BK5" s="5">
+        <f t="shared" ref="BK5" si="12">BJ5+1</f>
         <v>43263</v>
       </c>
-      <c r="BI5" s="5">
-        <f t="shared" ref="BI5" si="13">BH5+1</f>
+      <c r="BL5" s="5">
+        <f t="shared" ref="BL5" si="13">BK5+1</f>
         <v>43264</v>
       </c>
-      <c r="BJ5" s="5">
-        <f t="shared" ref="BJ5" si="14">BI5+1</f>
+      <c r="BM5" s="5">
+        <f t="shared" ref="BM5" si="14">BL5+1</f>
         <v>43265</v>
       </c>
-      <c r="BK5" s="5">
-        <f t="shared" ref="BK5" si="15">BJ5+1</f>
+      <c r="BN5" s="5">
+        <f t="shared" ref="BN5" si="15">BM5+1</f>
         <v>43266</v>
       </c>
-      <c r="BL5" s="5">
-        <f t="shared" ref="BL5" si="16">BK5+1</f>
+      <c r="BO5" s="5">
+        <f t="shared" ref="BO5" si="16">BN5+1</f>
         <v>43267</v>
       </c>
-      <c r="BM5" s="5">
-        <f t="shared" ref="BM5" si="17">BL5+1</f>
+      <c r="BP5" s="5">
+        <f t="shared" ref="BP5" si="17">BO5+1</f>
         <v>43268</v>
       </c>
     </row>
-    <row r="6" spans="2:65">
+    <row r="6" spans="2:68">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="7">
         <v>43268</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="4" t="str">
-        <f>TEXT(I5,"aaa")</f>
+      <c r="L6" s="4" t="str">
+        <f>TEXT(L5,"aaa")</f>
         <v>日</v>
       </c>
-      <c r="J6" s="4" t="str">
-        <f t="shared" ref="J6:AW6" si="18">TEXT(J5,"aaa")</f>
+      <c r="M6" s="4" t="str">
+        <f t="shared" ref="M6:AZ6" si="18">TEXT(M5,"aaa")</f>
         <v>月</v>
       </c>
-      <c r="K6" s="4" t="str">
+      <c r="N6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="L6" s="4" t="str">
+      <c r="O6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="M6" s="4" t="str">
+      <c r="P6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="N6" s="4" t="str">
+      <c r="Q6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="O6" s="4" t="str">
+      <c r="R6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="P6" s="4" t="str">
+      <c r="S6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="Q6" s="4" t="str">
+      <c r="T6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="R6" s="4" t="str">
+      <c r="U6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="S6" s="4" t="str">
+      <c r="V6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="T6" s="10" t="str">
+      <c r="W6" s="10" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="U6" s="10" t="str">
+      <c r="X6" s="10" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="V6" s="4" t="str">
+      <c r="Y6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="W6" s="4" t="str">
+      <c r="Z6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="X6" s="4" t="str">
+      <c r="AA6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="Y6" s="4" t="str">
+      <c r="AB6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="Z6" s="4" t="str">
+      <c r="AC6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="AA6" s="4" t="str">
+      <c r="AD6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="AB6" s="4" t="str">
+      <c r="AE6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="AC6" s="4" t="str">
+      <c r="AF6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="AD6" s="4" t="str">
+      <c r="AG6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="AE6" s="4" t="str">
+      <c r="AH6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="AF6" s="4" t="str">
+      <c r="AI6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="AG6" s="4" t="str">
+      <c r="AJ6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="AH6" s="4" t="str">
+      <c r="AK6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="AI6" s="4" t="str">
+      <c r="AL6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="AJ6" s="4" t="str">
+      <c r="AM6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="AK6" s="4" t="str">
+      <c r="AN6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="AL6" s="4" t="str">
+      <c r="AO6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="AM6" s="4" t="str">
+      <c r="AP6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="AN6" s="4" t="str">
+      <c r="AQ6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="AO6" s="4" t="str">
+      <c r="AR6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="AP6" s="4" t="str">
+      <c r="AS6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="AQ6" s="4" t="str">
+      <c r="AT6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="AR6" s="4" t="str">
+      <c r="AU6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="AS6" s="4" t="str">
+      <c r="AV6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="AT6" s="4" t="str">
+      <c r="AW6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="AU6" s="4" t="str">
+      <c r="AX6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="AV6" s="4" t="str">
+      <c r="AY6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="AW6" s="4" t="str">
+      <c r="AZ6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="AX6" s="4" t="str">
-        <f t="shared" ref="AX6:BM6" si="19">TEXT(AX5,"aaa")</f>
+      <c r="BA6" s="4" t="str">
+        <f t="shared" ref="BA6:BP6" si="19">TEXT(BA5,"aaa")</f>
         <v>土</v>
       </c>
-      <c r="AY6" s="4" t="str">
+      <c r="BB6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>日</v>
       </c>
-      <c r="AZ6" s="4" t="str">
+      <c r="BC6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>月</v>
       </c>
-      <c r="BA6" s="4" t="str">
+      <c r="BD6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>火</v>
       </c>
-      <c r="BB6" s="4" t="str">
+      <c r="BE6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>水</v>
       </c>
-      <c r="BC6" s="4" t="str">
+      <c r="BF6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>木</v>
       </c>
-      <c r="BD6" s="4" t="str">
+      <c r="BG6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>金</v>
       </c>
-      <c r="BE6" s="4" t="str">
+      <c r="BH6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>土</v>
       </c>
-      <c r="BF6" s="4" t="str">
+      <c r="BI6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>日</v>
       </c>
-      <c r="BG6" s="4" t="str">
+      <c r="BJ6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>月</v>
       </c>
-      <c r="BH6" s="4" t="str">
+      <c r="BK6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>火</v>
       </c>
-      <c r="BI6" s="4" t="str">
+      <c r="BL6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>水</v>
       </c>
-      <c r="BJ6" s="4" t="str">
+      <c r="BM6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>木</v>
       </c>
-      <c r="BK6" s="4" t="str">
+      <c r="BN6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>金</v>
       </c>
-      <c r="BL6" s="4" t="str">
+      <c r="BO6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>土</v>
       </c>
-      <c r="BM6" s="4" t="str">
+      <c r="BP6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>日</v>
       </c>
     </row>
-    <row r="7" spans="2:65">
+    <row r="7" spans="2:68">
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>43247</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="6">
-        <f>SUM($I7:$BL7)</f>
+      <c r="K7" s="6">
+        <f>SUM($L7:$BO7)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1695,11 +1650,11 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
       <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
@@ -1741,8 +1696,11 @@
       <c r="BK7" s="4"/>
       <c r="BL7" s="4"/>
       <c r="BM7" s="4"/>
-    </row>
-    <row r="8" spans="2:65">
+      <c r="BN7" s="4"/>
+      <c r="BO7" s="4"/>
+      <c r="BP7" s="4"/>
+    </row>
+    <row r="8" spans="2:68">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1753,17 +1711,16 @@
       <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="6">
-        <f>SUM($I8:$BL8)</f>
+      <c r="K8" s="6">
+        <f>SUM($L8:$BO8)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1771,11 +1728,11 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
       <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
@@ -1817,20 +1774,20 @@
       <c r="BK8" s="4"/>
       <c r="BL8" s="4"/>
       <c r="BM8" s="4"/>
-    </row>
-    <row r="9" spans="2:65">
+      <c r="BN8" s="4"/>
+      <c r="BO8" s="4"/>
+      <c r="BP8" s="4"/>
+    </row>
+    <row r="9" spans="2:68">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="6">
-        <f>SUM($I9:$BL9)</f>
+      <c r="K9" s="6">
+        <f>SUM($L9:$BO9)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1839,11 +1796,11 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
       <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
@@ -1885,89 +1842,95 @@
       <c r="BK9" s="4"/>
       <c r="BL9" s="4"/>
       <c r="BM9" s="4"/>
-    </row>
-    <row r="10" spans="2:65">
+      <c r="BN9" s="4"/>
+      <c r="BO9" s="4"/>
+      <c r="BP9" s="4"/>
+    </row>
+    <row r="10" spans="2:68">
       <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="2:65">
+    <row r="11" spans="2:68">
       <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="2:65">
+    <row r="12" spans="2:68">
       <c r="B12" s="12" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="2:65">
+    <row r="13" spans="2:68">
       <c r="B13" s="12" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="2:65">
+    <row r="14" spans="2:68">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="2:65">
+    <row r="15" spans="2:68">
       <c r="B15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="2:65">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:68">
       <c r="B16" s="4" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-      <c r="BJ16" s="2"/>
-    </row>
-    <row r="17" spans="2:6">
+        <v>45</v>
+      </c>
+      <c r="E16" s="14">
+        <f>($C$17+$C$18*2+$C$19*3)/6</f>
+        <v>100</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="BM16" s="2"/>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C17" s="4">
         <v>70</v>
       </c>
-      <c r="E17" s="15">
-        <f>($C$17+$C$18*2+$C$19*3)/6</f>
-        <v>100</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:9">
       <c r="B19" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C19" s="4">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:9">
       <c r="B21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" hidden="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" hidden="1">
       <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
@@ -1975,7 +1938,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="2:6" hidden="1">
+    <row r="23" spans="2:9" hidden="1">
       <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
@@ -1985,22 +1948,22 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:9">
       <c r="B24" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="14"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="I5:BM9">
+  <conditionalFormatting sqref="L5:BP9">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>I$6="土"</formula>
+      <formula>L$6="土"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="4">
-      <formula>I$6="日"</formula>
+      <formula>L$6="日"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2011,10 +1974,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:M24"/>
+  <dimension ref="B3:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2055,14 +2018,12 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="D5" s="15"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2074,10 +2035,8 @@
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="C6" s="13"/>
-      <c r="D6" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -2089,10 +2048,8 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="C7" s="13"/>
-      <c r="D7" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -2104,10 +2061,8 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="C8" s="13"/>
-      <c r="D8" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -2119,10 +2074,8 @@
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="C9" s="13"/>
-      <c r="D9" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -2134,10 +2087,8 @@
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="C10" s="13"/>
-      <c r="D10" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -2149,10 +2100,8 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="C11" s="13"/>
-      <c r="D11" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -2164,10 +2113,8 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="C12" s="13"/>
-      <c r="D12" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -2179,10 +2126,8 @@
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="C13" s="13"/>
-      <c r="D13" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -2194,10 +2139,8 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="C14" s="13"/>
-      <c r="D14" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -2209,10 +2152,8 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="C15" s="13"/>
-      <c r="D15" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -2224,10 +2165,8 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="C16" s="13"/>
-      <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -2239,10 +2178,8 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="3:13">
-      <c r="C17" s="13"/>
-      <c r="D17" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -2255,40 +2192,7 @@
     </row>
     <row r="18" spans="3:13">
       <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13">
-      <c r="D19" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13">
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13">
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13">
-      <c r="D22" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13">
-      <c r="D23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13">
-      <c r="D24" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2305,7 +2209,7 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2315,31 +2219,31 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="39.75" customHeight="1">

--- a/サーティファイC言語検定_1級.xlsx
+++ b/サーティファイC言語検定_1級.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="10950" windowHeight="8070"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="10950" windowHeight="8070" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール管理表" sheetId="1" r:id="rId1"/>
     <sheet name="正答率" sheetId="6" state="hidden" r:id="rId2"/>
     <sheet name="質問の掲示板" sheetId="7" r:id="rId3"/>
+    <sheet name="過去問（第23回）" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
   <si>
     <t>本日</t>
     <rPh sb="0" eb="2">
@@ -430,6 +431,1355 @@
     </rPh>
     <rPh sb="17" eb="20">
       <t>ソウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第23回　C言語プログラミング能力認定試験</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニンテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の仕様に基づく変更の要求に応じて、prog1ディレクトリを作成し、</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>originalディレクトリ中のファイルをprog1ディレクトリにすべてコピーしたうえで、</t>
+    <rPh sb="14" eb="15">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>common.h、main.h、main.c、nyuukai.c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を変更しなさい。</t>
+    </r>
+    <rPh sb="33" eb="35">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;仕様&gt;</t>
+    <rPh sb="1" eb="3">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現仕様の計測データ表の会員コードの次に、以下の形式で会員の入会年月を追加する。</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウカイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入会年月</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char型 7桁　（YYYYMM）</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　入会年月は入会登録処理ないで、会員コードの確定後に入力する。</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウカイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここで、入会年月は、6桁の数字のみで入力可能とする。</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　また、メイン処理の選択メニューに、</t>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「4：ゴールド会員検索」</t>
+    <rPh sb="7" eb="9">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>を追加し、現在の年月 6桁（YYYYMM）を入力することにより、入会して</t>
+    <rPh sb="1" eb="3">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニュウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5年以上経過している会員コードと入会年月をすべて表示できるようにする。</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウカイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（１）入会年月を計測データ表の会員コードの次に、以下の形式で構造体</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウカイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>コウゾウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KEISOKU_TBL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> の定義に追加する。</t>
+    </r>
+    <rPh sb="16" eb="18">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>（２）共通ルーチンとして、年月文字列判定処理（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chack_ym</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>main.cに新規作成する。</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　 年月文字列判定処理は、引数として渡された文字列に対して以下の判定をし、</t>
+    <rPh sb="3" eb="5">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　 年月文字列として妥当かどうかを、OKもしくはNGで返す。</t>
+    <rPh sb="3" eb="5">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ダトウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　 ①　文字列が6桁でない場合、”6桁で入力してください”と表示して、NGを返す。</t>
+    <rPh sb="5" eb="8">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　 ②　文字列に数字以外の文字が含まれている場合、“数値以外が入力されました”と</t>
+    <rPh sb="5" eb="8">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　表示して、NGを返す。</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　 ③　文字列の５～６文字目を数値に変換した結果，１～１２でない場合，</t>
+    <rPh sb="5" eb="8">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　“日付（月）入力エラーです”と表示して、NGを返す。</t>
+    <rPh sb="6" eb="8">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　 ④ ①～③のいずれにも当てはまらない場合は OKを返す。</t>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（３）入会踏力処理内において、会員コードの確定後に入会年月を入力するように、</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウカイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウカイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　　 計測コード表追加処理（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keisoku_tbl_add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）の内容を変更する。</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　 ①　“入会年月を入力してください( YYYYMM )”と表示し、入力年月を入力させる。</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウカイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　　 ②　年月文字列判定処理（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>check_ym</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）を呼び出し、入力した文字列が年月として</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　妥当かどうか判定する。</t>
+    <rPh sb="5" eb="7">
+      <t>ダトウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　 ③　判定結果がOKになるまで①，②の処理を繰り返す。</t>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　&lt;実行例&gt;</t>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　会員コードは 5 です。 よろしいですか（ Y/N　）</t>
+    <rPh sb="2" eb="4">
+      <t>カイイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　? y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　入会年月を入力してください（ YYYYMM ）</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　? 20000101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　? 2000ab</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　数値以外が入力されました</t>
+    <rPh sb="2" eb="4">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　6桁で入力してください</t>
+    <rPh sb="3" eb="4">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　? 200013</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　日付 （月） 入力エラーです</t>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　? 200904</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　入力登録処理が終了しました</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（４）メインメニューに「4：ゴールド会員検索」を追加し，現在の年月を入力することにより，</t>
+    <rPh sb="18" eb="20">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　 入会して5年以上経過している会員の会員コードと入会年月をすべて表示できるように，</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウカイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ネンイジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウカイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　　 会員管理メイン制御(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)の内容を変更し，ゴールド会員検索処理（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gold_kaiin_kensaku</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <rPh sb="3" eb="7">
+      <t>カイインカンリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>カイインケンサク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>main.c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に新規作成する。</t>
+    </r>
+    <rPh sb="13" eb="15">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　 ①　“現在の年月 6 桁を入力してください（ YYYYMM ）”と表示して，現在の年月を入力させる</t>
+    <rPh sb="6" eb="8">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　　 ②　年月文字烈判定処理（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>check_ym</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）を呼び出し，入力した文字列が年月として</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　 ④ 計測データ表を検索し，入会して５年以上経過している全会員の会員コードと</t>
+    <rPh sb="5" eb="7">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウカイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ゼンカイイン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カイイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　 入会年月を表示する。</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（例１） 入会年月：２００６年０１月，現在の年月：２０１０年１２月は５年未満</t>
+    <rPh sb="1" eb="2">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（例２） 入会年月：２００６年０１月，現在の年月：２０１１年０１月は５年以上</t>
+    <rPh sb="1" eb="2">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ネンイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　⑤ 該当する会員が存在しない場合には、「該当する会員コードはありません」を表示する。</t>
+    <rPh sb="4" eb="6">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　&lt;実行例１：該当する会員がいる場合&gt;</t>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　現在の年月 6 桁を入力してください（ YYYYMM ）</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      ? 201101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        コード 年月</t>
+    <rPh sb="12" eb="14">
+      <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　　2   2006-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　　4   2005-11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　&lt;実行例２：該当する会員がいない場合&gt;</t>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      ? 200512</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　該当する会員コードはありません</t>
+    <rPh sb="3" eb="5">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問２</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明日、更新します。</t>
+    <rPh sb="0" eb="2">
+      <t>アシタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -441,7 +1791,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,8 +1825,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,6 +1844,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,7 +1894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,6 +1945,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1101,7 +2471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BP29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -1155,7 +2525,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">TODAY()</f>
-        <v>43213</v>
+        <v>43214</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>10</v>
@@ -1706,7 +3076,7 @@
       </c>
       <c r="C8" s="4">
         <f ca="1">C6-C5</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -2366,4 +3736,386 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:M98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="11" max="11" width="3.25" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="C81" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="C82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/サーティファイC言語検定_1級.xlsx
+++ b/サーティファイC言語検定_1級.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="10950" windowHeight="8070" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="10950" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール管理表" sheetId="1" r:id="rId1"/>
     <sheet name="正答率" sheetId="6" state="hidden" r:id="rId2"/>
     <sheet name="質問の掲示板" sheetId="7" r:id="rId3"/>
     <sheet name="過去問（第23回）" sheetId="8" r:id="rId4"/>
+    <sheet name="main関数" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1943,14 +1944,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2179,6 +2180,2439 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>73152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート : 端子 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="285750"/>
+          <a:ext cx="914400" cy="301752"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート : 判断 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228601" y="914400"/>
+          <a:ext cx="3076574" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>空きコード表ファイルが存在するか？</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（バイナリモードで開く）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>395288</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>73152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1766888" y="587502"/>
+          <a:ext cx="4762" cy="326898"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="フローチャート: 処理 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885824" y="3095625"/>
+          <a:ext cx="1781176" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>akicode_tbl_create</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>関数で空きコード表ファイル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を新規作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>395288</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1766888" y="2476500"/>
+          <a:ext cx="9524" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フローチャート : 判断 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="4467225"/>
+          <a:ext cx="3286125" cy="1371599"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コード・データ対照表ファイルが存在するか？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（バイナリモードで開く）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>385763</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1757363" y="3876675"/>
+          <a:ext cx="19049" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="479106" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="2543175"/>
+          <a:ext cx="479106" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="453009" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648075" y="1343025"/>
+          <a:ext cx="453009" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="フローチャート: 処理 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685799" y="6429375"/>
+          <a:ext cx="2105025" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>codedata_tbl_create</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>関数で</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コード・データ対照表ファイルを新規作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>385763</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="46" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1738312" y="5838824"/>
+          <a:ext cx="19051" cy="590551"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="479106" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="テキスト ボックス 71"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="5905500"/>
+          <a:ext cx="479106" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="フローチャート: 処理 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3228974" y="3105150"/>
+          <a:ext cx="1781176" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>空きコード表ファイル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を閉じる。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="図形 77"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="76" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3305175" y="1695450"/>
+          <a:ext cx="814387" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>385764</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="カギ線コネクタ 79"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2647951" y="2995613"/>
+          <a:ext cx="581025" cy="2362199"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="フローチャート: 処理 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219449" y="6438900"/>
+          <a:ext cx="1781176" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>コード・データ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>対照</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表ファイル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を閉じる。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>681037</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="図形 82"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="81" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3400425" y="5153025"/>
+          <a:ext cx="709612" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="453009" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="テキスト ボックス 83"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3543300" y="4810125"/>
+          <a:ext cx="453009" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="フローチャート : 判断 86"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714374" y="7715250"/>
+          <a:ext cx="2009775" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>While</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>文</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TURE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>である。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直線矢印コネクタ 88"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="2"/>
+          <a:endCxn id="87" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1719262" y="7210425"/>
+          <a:ext cx="19050" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="正方形/長方形 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="9296400"/>
+          <a:ext cx="1304925" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>空きコード表の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>０番地を初期化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直線矢印コネクタ 93"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="87" idx="2"/>
+          <a:endCxn id="92" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1719262" y="8848725"/>
+          <a:ext cx="1" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="片側の 2 つの角を切り取った四角形 94"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781051" y="10525125"/>
+          <a:ext cx="1876424" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>i=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> 0, i &lt; MEMBER_MAX, i++</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直線矢印コネクタ 96"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="92" idx="2"/>
+          <a:endCxn id="95" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1719263" y="10048875"/>
+          <a:ext cx="0" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>88773</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="フローチャート: 処理 98"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="11306175"/>
+          <a:ext cx="1676400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>空きコード表の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> + 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>番地を初期化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>60198</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="フローチャート: 処理 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942975" y="12134850"/>
+          <a:ext cx="1676400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コード・データ表の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>番地を初期化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="フローチャート: 処理 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="12963524"/>
+          <a:ext cx="1714500" cy="1047751"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ソート用計測データ表の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>番地</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>init_kojin_keisoku_tbl</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>関数で初期化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直線矢印コネクタ 103"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="95" idx="1"/>
+          <a:endCxn id="99" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1719263" y="10944225"/>
+          <a:ext cx="4762" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>88773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="直線矢印コネクタ 106"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="99" idx="2"/>
+          <a:endCxn id="100" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="11918823"/>
+          <a:ext cx="57150" cy="216027"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>60198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="直線矢印コネクタ 110"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="100" idx="2"/>
+          <a:endCxn id="101" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="12747498"/>
+          <a:ext cx="0" cy="216026"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="片側の 2 つの角を切り取った四角形 112"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="828676" y="14316075"/>
+          <a:ext cx="1876424" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>395288</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="直線矢印コネクタ 114"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="101" idx="2"/>
+          <a:endCxn id="113" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1766888" y="14011275"/>
+          <a:ext cx="14287" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>12573</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="フローチャート: 処理 126"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009650" y="15068550"/>
+          <a:ext cx="1543050" cy="717423"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>個人別計測データ表を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>init_kojin_keisoku_tbl</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>関数で初期化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>395288</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="直線矢印コネクタ 131"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="113" idx="3"/>
+          <a:endCxn id="127" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1766888" y="14735175"/>
+          <a:ext cx="14287" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>69723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="フローチャート: 処理 136"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="16154400"/>
+          <a:ext cx="1543050" cy="717423"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アスレチック　メンバ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>管理プログラムの</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メニューを表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>12573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="163" name="直線矢印コネクタ 162"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="127" idx="2"/>
+          <a:endCxn id="137" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1762125" y="15785973"/>
+          <a:ext cx="19050" cy="368427"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>681037</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="カギ線コネクタ 164"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="81" idx="2"/>
+          <a:endCxn id="87" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2667000" y="6272213"/>
+          <a:ext cx="495300" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>145923</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="フローチャート: 処理 165"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="17192625"/>
+          <a:ext cx="1390650" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>処理区分入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を初期化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>69723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="168" name="直線矢印コネクタ 167"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="137" idx="2"/>
+          <a:endCxn id="166" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="16871823"/>
+          <a:ext cx="0" cy="320802"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="フローチャート: 処理 170"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="18107025"/>
+          <a:ext cx="1390650" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>処理区分入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>145923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="173" name="直線矢印コネクタ 172"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="166" idx="2"/>
+          <a:endCxn id="171" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1752600" y="17805273"/>
+          <a:ext cx="9525" cy="301752"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2471,9 +4905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BP29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2525,7 +4959,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">TODAY()</f>
-        <v>43214</v>
+        <v>43218</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>10</v>
@@ -3076,7 +5510,7 @@
       </c>
       <c r="C8" s="4">
         <f ca="1">C6-C5</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -3156,15 +5590,29 @@
       </c>
       <c r="K9" s="6">
         <f>SUM($L9:$BO9)</f>
+        <v>5.5</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="4">
         <v>0</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>2</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
@@ -3390,7 +5838,7 @@
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="18" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="15"/>
@@ -3405,7 +5853,7 @@
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="C6" s="16"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="15"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -3418,7 +5866,7 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="C7" s="16"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="15"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -3431,7 +5879,7 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="C8" s="16"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="15"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -3444,7 +5892,7 @@
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="C9" s="16"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="15"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -3457,7 +5905,7 @@
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="C10" s="16"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="15"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -3470,7 +5918,7 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="C11" s="16"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="15"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -3483,7 +5931,7 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="C12" s="16"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="15"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -3496,7 +5944,7 @@
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="C13" s="16"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="15"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -3509,7 +5957,7 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="C14" s="16"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="15"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -3522,7 +5970,7 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="C15" s="16"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="15"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -3535,7 +5983,7 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="C16" s="16"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="15"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -3548,7 +5996,7 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="3:13">
-      <c r="C17" s="16"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="15"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -3742,13 +6190,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="11" max="11" width="3.25" style="18" customWidth="1"/>
+    <col min="11" max="11" width="3.25" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
@@ -3778,7 +6226,7 @@
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4118,4 +6566,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/サーティファイC言語検定_1級.xlsx
+++ b/サーティファイC言語検定_1級.xlsx
@@ -11,14 +11,13 @@
     <sheet name="正答率" sheetId="6" state="hidden" r:id="rId2"/>
     <sheet name="質問の掲示板" sheetId="7" r:id="rId3"/>
     <sheet name="過去問（第23回）" sheetId="8" r:id="rId4"/>
-    <sheet name="main関数" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="116">
   <si>
     <t>本日</t>
     <rPh sb="0" eb="2">
@@ -1781,6 +1780,13 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1996,13 +2002,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -2057,13 +2063,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>66</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>68</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -2118,13 +2124,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -2180,2439 +2186,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>73152</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="フローチャート : 端子 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1314450" y="285750"/>
-          <a:ext cx="914400" cy="301752"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartTerminator">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>開始</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="フローチャート : 判断 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228601" y="914400"/>
-          <a:ext cx="3076574" cy="1562100"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>空きコード表ファイルが存在するか？</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>（バイナリモードで開く）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>395288</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>73152</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1766888" y="587502"/>
-          <a:ext cx="4762" cy="326898"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="フローチャート: 処理 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="885824" y="3095625"/>
-          <a:ext cx="1781176" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>akicode_tbl_create</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>関数で空きコード表ファイル</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を新規作成</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>395288</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="8" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1766888" y="2476500"/>
-          <a:ext cx="9524" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="フローチャート : 判断 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="114300" y="4467225"/>
-          <a:ext cx="3286125" cy="1371599"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>コード・データ対照表ファイルが存在するか？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>（バイナリモードで開く）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>385763</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="12" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1757363" y="3876675"/>
-          <a:ext cx="19049" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="479106" cy="342786"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1895475" y="2543175"/>
-          <a:ext cx="479106" cy="342786"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>YES</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="453009" cy="342786"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="テキスト ボックス 36"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3648075" y="1343025"/>
-          <a:ext cx="453009" cy="342786"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>NO</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="フローチャート: 処理 45"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685799" y="6429375"/>
-          <a:ext cx="2105025" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>codedata_tbl_create</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>関数で</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>コード・データ対照表ファイルを新規作成</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>385763</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直線矢印コネクタ 47"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="2"/>
-          <a:endCxn id="46" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1738312" y="5838824"/>
-          <a:ext cx="19051" cy="590551"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="479106" cy="342786"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="テキスト ボックス 71"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1857375" y="5905500"/>
-          <a:ext cx="479106" cy="342786"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>YES</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="フローチャート: 処理 75"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3228974" y="3105150"/>
-          <a:ext cx="1781176" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>空きコード表ファイル</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を閉じる。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="図形 77"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="76" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3305175" y="1695450"/>
-          <a:ext cx="814387" cy="1409700"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>385764</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="カギ線コネクタ 79"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="76" idx="2"/>
-          <a:endCxn id="12" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2647951" y="2995613"/>
-          <a:ext cx="581025" cy="2362199"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="フローチャート: 処理 80"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3219449" y="6438900"/>
-          <a:ext cx="1781176" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>コード・データ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>対照</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>表ファイル</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を閉じる。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>681037</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="図形 82"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="3"/>
-          <a:endCxn id="81" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3400425" y="5153025"/>
-          <a:ext cx="709612" cy="1285875"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="453009" cy="342786"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="テキスト ボックス 83"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3543300" y="4810125"/>
-          <a:ext cx="453009" cy="342786"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>NO</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="フローチャート : 判断 86"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="714374" y="7715250"/>
-          <a:ext cx="2009775" cy="1133475"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>While</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>文</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>TURE</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>である。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="89" name="直線矢印コネクタ 88"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="2"/>
-          <a:endCxn id="87" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1719262" y="7210425"/>
-          <a:ext cx="19050" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="正方形/長方形 91"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1066800" y="9296400"/>
-          <a:ext cx="1304925" cy="752475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>空きコード表の</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>０番地を初期化</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>347663</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="94" name="直線矢印コネクタ 93"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="87" idx="2"/>
-          <a:endCxn id="92" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1719262" y="8848725"/>
-          <a:ext cx="1" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="片側の 2 つの角を切り取った四角形 94"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="781051" y="10525125"/>
-          <a:ext cx="1876424" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="snip2SameRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>i=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> 0, i &lt; MEMBER_MAX, i++</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>347663</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>347663</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="直線矢印コネクタ 96"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="92" idx="2"/>
-          <a:endCxn id="95" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1719263" y="10048875"/>
-          <a:ext cx="0" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>88773</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="フローチャート: 処理 98"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="885825" y="11306175"/>
-          <a:ext cx="1676400" cy="612648"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>空きコード表の</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>i</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> + 1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>番地を初期化</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>60198</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="フローチャート: 処理 99"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="942975" y="12134850"/>
-          <a:ext cx="1676400" cy="612648"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>コード・データ表の</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>i</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>番地を初期化</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="フローチャート: 処理 100"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="923925" y="12963524"/>
-          <a:ext cx="1714500" cy="1047751"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ソート用計測データ表の</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>i</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>番地</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>init_kojin_keisoku_tbl</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>関数で初期化</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>347663</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="104" name="直線矢印コネクタ 103"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="95" idx="1"/>
-          <a:endCxn id="99" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1719263" y="10944225"/>
-          <a:ext cx="4762" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>88773</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="107" name="直線矢印コネクタ 106"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="99" idx="2"/>
-          <a:endCxn id="100" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1724025" y="11918823"/>
-          <a:ext cx="57150" cy="216027"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>60198</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="111" name="直線矢印コネクタ 110"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="100" idx="2"/>
-          <a:endCxn id="101" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1781175" y="12747498"/>
-          <a:ext cx="0" cy="216026"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="片側の 2 つの角を切り取った四角形 112"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="828676" y="14316075"/>
-          <a:ext cx="1876424" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="snip2SameRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>395288</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="115" name="直線矢印コネクタ 114"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="101" idx="2"/>
-          <a:endCxn id="113" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1766888" y="14011275"/>
-          <a:ext cx="14287" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>12573</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="フローチャート: 処理 126"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1009650" y="15068550"/>
-          <a:ext cx="1543050" cy="717423"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>個人別計測データ表を</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>init_kojin_keisoku_tbl</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>関数で初期化</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>395288</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="132" name="直線矢印コネクタ 131"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="113" idx="3"/>
-          <a:endCxn id="127" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1766888" y="14735175"/>
-          <a:ext cx="14287" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>69723</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="フローチャート: 処理 136"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="990600" y="16154400"/>
-          <a:ext cx="1543050" cy="717423"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>アスレチック　メンバ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>管理プログラムの</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>メニューを表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>12573</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="163" name="直線矢印コネクタ 162"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="127" idx="2"/>
-          <a:endCxn id="137" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1762125" y="15785973"/>
-          <a:ext cx="19050" cy="368427"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>681037</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="165" name="カギ線コネクタ 164"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="81" idx="2"/>
-          <a:endCxn id="87" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2667000" y="6272213"/>
-          <a:ext cx="495300" cy="2390775"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>145923</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="166" name="フローチャート: 処理 165"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1066800" y="17192625"/>
-          <a:ext cx="1390650" cy="612648"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>処理区分入力</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を初期化</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>69723</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="168" name="直線矢印コネクタ 167"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="137" idx="2"/>
-          <a:endCxn id="166" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1762125" y="16871823"/>
-          <a:ext cx="0" cy="320802"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="171" name="フローチャート: 処理 170"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1057275" y="18107025"/>
-          <a:ext cx="1390650" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>処理区分入力</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>145923</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="173" name="直線矢印コネクタ 172"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="166" idx="2"/>
-          <a:endCxn id="171" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1752600" y="17805273"/>
-          <a:ext cx="9525" cy="301752"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4903,11 +2476,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:BP29"/>
+  <dimension ref="B2:BQ29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R10" sqref="R10"/>
+      <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4919,281 +2492,282 @@
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="6" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
-    <col min="12" max="17" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="51" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="52" max="56" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="57" max="63" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="6" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.25" customWidth="1"/>
+    <col min="13" max="18" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="52" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="53" max="57" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="58" max="64" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="6" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:68" ht="18.75">
+    <row r="2" spans="2:69" ht="18.75">
       <c r="B2" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:68" ht="18.75">
+    <row r="3" spans="2:69" ht="18.75">
       <c r="B3" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:68">
-      <c r="L4" t="s">
+    <row r="4" spans="2:69">
+      <c r="M4" t="s">
         <v>6</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>7</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:68">
+    <row r="5" spans="2:69">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="7">
         <f ca="1">TODAY()</f>
-        <v>43218</v>
+        <v>43220</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="3"/>
+      <c r="M5" s="5">
         <f>DATE($C$22,$C$23,22)</f>
         <v>43212</v>
       </c>
-      <c r="M5" s="5">
-        <f>L5+1</f>
+      <c r="N5" s="5">
+        <f>M5+1</f>
         <v>43213</v>
       </c>
-      <c r="N5" s="5">
-        <f t="shared" ref="N5:AL5" si="0">M5+1</f>
+      <c r="O5" s="5">
+        <f t="shared" ref="O5:AM5" si="0">N5+1</f>
         <v>43214</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <f t="shared" si="0"/>
         <v>43215</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <f t="shared" si="0"/>
         <v>43216</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="5">
         <f t="shared" si="0"/>
         <v>43217</v>
       </c>
-      <c r="R5" s="5">
+      <c r="S5" s="5">
         <f t="shared" si="0"/>
         <v>43218</v>
       </c>
-      <c r="S5" s="5">
+      <c r="T5" s="5">
         <f t="shared" si="0"/>
         <v>43219</v>
       </c>
-      <c r="T5" s="5">
+      <c r="U5" s="5">
         <f t="shared" si="0"/>
         <v>43220</v>
       </c>
-      <c r="U5" s="5">
+      <c r="V5" s="5">
         <f t="shared" si="0"/>
         <v>43221</v>
       </c>
-      <c r="V5" s="5">
+      <c r="W5" s="5">
         <f t="shared" si="0"/>
         <v>43222</v>
       </c>
-      <c r="W5" s="9">
+      <c r="X5" s="9">
         <f t="shared" si="0"/>
         <v>43223</v>
       </c>
-      <c r="X5" s="9">
+      <c r="Y5" s="9">
         <f t="shared" si="0"/>
         <v>43224</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Z5" s="5">
         <f t="shared" si="0"/>
         <v>43225</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="AA5" s="5">
         <f t="shared" si="0"/>
         <v>43226</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AB5" s="5">
         <f t="shared" si="0"/>
         <v>43227</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AC5" s="5">
         <f t="shared" si="0"/>
         <v>43228</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AD5" s="5">
         <f t="shared" si="0"/>
         <v>43229</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AE5" s="5">
         <f t="shared" si="0"/>
         <v>43230</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AF5" s="5">
         <f t="shared" si="0"/>
         <v>43231</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AG5" s="5">
         <f t="shared" si="0"/>
         <v>43232</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AH5" s="5">
         <f t="shared" si="0"/>
         <v>43233</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AI5" s="5">
         <f t="shared" si="0"/>
         <v>43234</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AJ5" s="5">
         <f t="shared" si="0"/>
         <v>43235</v>
       </c>
-      <c r="AJ5" s="5">
+      <c r="AK5" s="5">
         <f t="shared" si="0"/>
         <v>43236</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AL5" s="5">
         <f t="shared" si="0"/>
         <v>43237</v>
       </c>
-      <c r="AL5" s="5">
+      <c r="AM5" s="5">
         <f t="shared" si="0"/>
         <v>43238</v>
       </c>
-      <c r="AM5" s="5">
-        <f>AL5+1</f>
+      <c r="AN5" s="5">
+        <f>AM5+1</f>
         <v>43239</v>
       </c>
-      <c r="AN5" s="5">
-        <f t="shared" ref="AN5:AZ5" si="1">AM5+1</f>
+      <c r="AO5" s="5">
+        <f t="shared" ref="AO5:BA5" si="1">AN5+1</f>
         <v>43240</v>
       </c>
-      <c r="AO5" s="5">
+      <c r="AP5" s="5">
         <f t="shared" si="1"/>
         <v>43241</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AQ5" s="5">
         <f t="shared" si="1"/>
         <v>43242</v>
       </c>
-      <c r="AQ5" s="5">
+      <c r="AR5" s="5">
         <f t="shared" si="1"/>
         <v>43243</v>
       </c>
-      <c r="AR5" s="5">
+      <c r="AS5" s="5">
         <f t="shared" si="1"/>
         <v>43244</v>
       </c>
-      <c r="AS5" s="5">
+      <c r="AT5" s="5">
         <f t="shared" si="1"/>
         <v>43245</v>
       </c>
-      <c r="AT5" s="5">
+      <c r="AU5" s="5">
         <f t="shared" si="1"/>
         <v>43246</v>
       </c>
-      <c r="AU5" s="5">
+      <c r="AV5" s="5">
         <f t="shared" si="1"/>
         <v>43247</v>
       </c>
-      <c r="AV5" s="5">
+      <c r="AW5" s="5">
         <f t="shared" si="1"/>
         <v>43248</v>
       </c>
-      <c r="AW5" s="5">
+      <c r="AX5" s="5">
         <f t="shared" si="1"/>
         <v>43249</v>
       </c>
-      <c r="AX5" s="5">
+      <c r="AY5" s="5">
         <f t="shared" si="1"/>
         <v>43250</v>
       </c>
-      <c r="AY5" s="5">
+      <c r="AZ5" s="5">
         <f t="shared" si="1"/>
         <v>43251</v>
       </c>
-      <c r="AZ5" s="5">
+      <c r="BA5" s="5">
         <f t="shared" si="1"/>
         <v>43252</v>
       </c>
-      <c r="BA5" s="5">
-        <f t="shared" ref="BA5" si="2">AZ5+1</f>
+      <c r="BB5" s="5">
+        <f t="shared" ref="BB5" si="2">BA5+1</f>
         <v>43253</v>
       </c>
-      <c r="BB5" s="5">
-        <f t="shared" ref="BB5" si="3">BA5+1</f>
+      <c r="BC5" s="5">
+        <f t="shared" ref="BC5" si="3">BB5+1</f>
         <v>43254</v>
       </c>
-      <c r="BC5" s="5">
-        <f t="shared" ref="BC5" si="4">BB5+1</f>
+      <c r="BD5" s="5">
+        <f t="shared" ref="BD5" si="4">BC5+1</f>
         <v>43255</v>
       </c>
-      <c r="BD5" s="5">
-        <f t="shared" ref="BD5" si="5">BC5+1</f>
+      <c r="BE5" s="5">
+        <f t="shared" ref="BE5" si="5">BD5+1</f>
         <v>43256</v>
       </c>
-      <c r="BE5" s="5">
-        <f t="shared" ref="BE5" si="6">BD5+1</f>
+      <c r="BF5" s="5">
+        <f t="shared" ref="BF5" si="6">BE5+1</f>
         <v>43257</v>
       </c>
-      <c r="BF5" s="5">
-        <f t="shared" ref="BF5" si="7">BE5+1</f>
+      <c r="BG5" s="5">
+        <f t="shared" ref="BG5" si="7">BF5+1</f>
         <v>43258</v>
       </c>
-      <c r="BG5" s="5">
-        <f t="shared" ref="BG5" si="8">BF5+1</f>
+      <c r="BH5" s="5">
+        <f t="shared" ref="BH5" si="8">BG5+1</f>
         <v>43259</v>
       </c>
-      <c r="BH5" s="5">
-        <f t="shared" ref="BH5" si="9">BG5+1</f>
+      <c r="BI5" s="5">
+        <f t="shared" ref="BI5" si="9">BH5+1</f>
         <v>43260</v>
       </c>
-      <c r="BI5" s="5">
-        <f t="shared" ref="BI5" si="10">BH5+1</f>
+      <c r="BJ5" s="5">
+        <f t="shared" ref="BJ5" si="10">BI5+1</f>
         <v>43261</v>
       </c>
-      <c r="BJ5" s="5">
-        <f t="shared" ref="BJ5" si="11">BI5+1</f>
+      <c r="BK5" s="5">
+        <f t="shared" ref="BK5" si="11">BJ5+1</f>
         <v>43262</v>
       </c>
-      <c r="BK5" s="5">
-        <f t="shared" ref="BK5" si="12">BJ5+1</f>
+      <c r="BL5" s="5">
+        <f t="shared" ref="BL5" si="12">BK5+1</f>
         <v>43263</v>
       </c>
-      <c r="BL5" s="5">
-        <f t="shared" ref="BL5" si="13">BK5+1</f>
+      <c r="BM5" s="5">
+        <f t="shared" ref="BM5" si="13">BL5+1</f>
         <v>43264</v>
       </c>
-      <c r="BM5" s="5">
-        <f t="shared" ref="BM5" si="14">BL5+1</f>
+      <c r="BN5" s="5">
+        <f t="shared" ref="BN5" si="14">BM5+1</f>
         <v>43265</v>
       </c>
-      <c r="BN5" s="5">
-        <f t="shared" ref="BN5" si="15">BM5+1</f>
+      <c r="BO5" s="5">
+        <f t="shared" ref="BO5" si="15">BN5+1</f>
         <v>43266</v>
       </c>
-      <c r="BO5" s="5">
-        <f t="shared" ref="BO5" si="16">BN5+1</f>
+      <c r="BP5" s="5">
+        <f t="shared" ref="BP5" si="16">BO5+1</f>
         <v>43267</v>
       </c>
-      <c r="BP5" s="5">
-        <f t="shared" ref="BP5" si="17">BO5+1</f>
+      <c r="BQ5" s="5">
+        <f t="shared" ref="BQ5" si="17">BP5+1</f>
         <v>43268</v>
       </c>
     </row>
-    <row r="6" spans="2:68">
+    <row r="6" spans="2:69">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -5203,236 +2777,239 @@
       <c r="K6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="4" t="str">
-        <f>TEXT(L5,"aaa")</f>
+      <c r="L6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" s="4" t="str">
+        <f>TEXT(M5,"aaa")</f>
         <v>日</v>
       </c>
-      <c r="M6" s="4" t="str">
-        <f t="shared" ref="M6:AZ6" si="18">TEXT(M5,"aaa")</f>
+      <c r="N6" s="4" t="str">
+        <f t="shared" ref="N6:BA6" si="18">TEXT(N5,"aaa")</f>
         <v>月</v>
       </c>
-      <c r="N6" s="4" t="str">
+      <c r="O6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="O6" s="4" t="str">
+      <c r="P6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="P6" s="4" t="str">
+      <c r="Q6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="Q6" s="4" t="str">
+      <c r="R6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="R6" s="4" t="str">
+      <c r="S6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="S6" s="4" t="str">
+      <c r="T6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="T6" s="4" t="str">
+      <c r="U6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="U6" s="4" t="str">
+      <c r="V6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="V6" s="4" t="str">
+      <c r="W6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="W6" s="10" t="str">
+      <c r="X6" s="10" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="X6" s="10" t="str">
+      <c r="Y6" s="10" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="Y6" s="4" t="str">
+      <c r="Z6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="Z6" s="4" t="str">
+      <c r="AA6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="AA6" s="4" t="str">
+      <c r="AB6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="AB6" s="4" t="str">
+      <c r="AC6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="AC6" s="4" t="str">
+      <c r="AD6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="AD6" s="4" t="str">
+      <c r="AE6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="AE6" s="4" t="str">
+      <c r="AF6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="AF6" s="4" t="str">
+      <c r="AG6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="AG6" s="4" t="str">
+      <c r="AH6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="AH6" s="4" t="str">
+      <c r="AI6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="AI6" s="4" t="str">
+      <c r="AJ6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="AJ6" s="4" t="str">
+      <c r="AK6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="AK6" s="4" t="str">
+      <c r="AL6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="AL6" s="4" t="str">
+      <c r="AM6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="AM6" s="4" t="str">
+      <c r="AN6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="AN6" s="4" t="str">
+      <c r="AO6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="AO6" s="4" t="str">
+      <c r="AP6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="AP6" s="4" t="str">
+      <c r="AQ6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="AQ6" s="4" t="str">
+      <c r="AR6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="AR6" s="4" t="str">
+      <c r="AS6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="AS6" s="4" t="str">
+      <c r="AT6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="AT6" s="4" t="str">
+      <c r="AU6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="AU6" s="4" t="str">
+      <c r="AV6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="AV6" s="4" t="str">
+      <c r="AW6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="AW6" s="4" t="str">
+      <c r="AX6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="AX6" s="4" t="str">
+      <c r="AY6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="AY6" s="4" t="str">
+      <c r="AZ6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="AZ6" s="4" t="str">
+      <c r="BA6" s="4" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="BA6" s="4" t="str">
-        <f t="shared" ref="BA6:BP6" si="19">TEXT(BA5,"aaa")</f>
+      <c r="BB6" s="4" t="str">
+        <f t="shared" ref="BB6:BQ6" si="19">TEXT(BB5,"aaa")</f>
         <v>土</v>
       </c>
-      <c r="BB6" s="4" t="str">
+      <c r="BC6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>日</v>
       </c>
-      <c r="BC6" s="4" t="str">
+      <c r="BD6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>月</v>
       </c>
-      <c r="BD6" s="4" t="str">
+      <c r="BE6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>火</v>
       </c>
-      <c r="BE6" s="4" t="str">
+      <c r="BF6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>水</v>
       </c>
-      <c r="BF6" s="4" t="str">
+      <c r="BG6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>木</v>
       </c>
-      <c r="BG6" s="4" t="str">
+      <c r="BH6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>金</v>
       </c>
-      <c r="BH6" s="4" t="str">
+      <c r="BI6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>土</v>
       </c>
-      <c r="BI6" s="4" t="str">
+      <c r="BJ6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>日</v>
       </c>
-      <c r="BJ6" s="4" t="str">
+      <c r="BK6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>月</v>
       </c>
-      <c r="BK6" s="4" t="str">
+      <c r="BL6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>火</v>
       </c>
-      <c r="BL6" s="4" t="str">
+      <c r="BM6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>水</v>
       </c>
-      <c r="BM6" s="4" t="str">
+      <c r="BN6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>木</v>
       </c>
-      <c r="BN6" s="4" t="str">
+      <c r="BO6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>金</v>
       </c>
-      <c r="BO6" s="4" t="str">
+      <c r="BP6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>土</v>
       </c>
-      <c r="BP6" s="4" t="str">
+      <c r="BQ6" s="4" t="str">
         <f t="shared" si="19"/>
         <v>日</v>
       </c>
     </row>
-    <row r="7" spans="2:68">
+    <row r="7" spans="2:69">
       <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
@@ -5443,10 +3020,13 @@
         <v>12</v>
       </c>
       <c r="K7" s="6">
-        <f>SUM($L7:$BO7)</f>
+        <f>SUM($M7:$BP7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="6">
+        <f t="shared" ref="L7:L8" ca="1" si="20">K7/(57-$C$8)</f>
+        <v>0</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -5457,9 +3037,9 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
-      <c r="W7" s="10"/>
+      <c r="W7" s="4"/>
       <c r="X7" s="10"/>
-      <c r="Y7" s="4"/>
+      <c r="Y7" s="10"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
@@ -5503,14 +3083,15 @@
       <c r="BN7" s="4"/>
       <c r="BO7" s="4"/>
       <c r="BP7" s="4"/>
-    </row>
-    <row r="8" spans="2:68">
+      <c r="BQ7" s="4"/>
+    </row>
+    <row r="8" spans="2:69">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="4">
         <f ca="1">C6-C5</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -5519,13 +3100,16 @@
         <v>13</v>
       </c>
       <c r="K8" s="6">
-        <f>SUM($L8:$BO8)</f>
+        <f>SUM($M8:$BP8)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="6">
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -5535,9 +3119,9 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
-      <c r="W8" s="10"/>
+      <c r="W8" s="4"/>
       <c r="X8" s="10"/>
-      <c r="Y8" s="4"/>
+      <c r="Y8" s="10"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
@@ -5581,19 +3165,21 @@
       <c r="BN8" s="4"/>
       <c r="BO8" s="4"/>
       <c r="BP8" s="4"/>
-    </row>
-    <row r="9" spans="2:68">
+      <c r="BQ8" s="4"/>
+    </row>
+    <row r="9" spans="2:69">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="J9" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="6">
-        <f>SUM($L9:$BO9)</f>
-        <v>5.5</v>
-      </c>
-      <c r="L9" s="4">
-        <v>1</v>
+        <f>SUM($M9:$BP9)</f>
+        <v>9.5</v>
+      </c>
+      <c r="L9" s="6">
+        <f ca="1">K9/(57-$C$8)</f>
+        <v>1.0555555555555556</v>
       </c>
       <c r="M9" s="4">
         <v>1</v>
@@ -5602,24 +3188,30 @@
         <v>1</v>
       </c>
       <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4">
         <v>0.5</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
       </c>
       <c r="Q9" s="4">
         <v>0</v>
       </c>
       <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
         <v>2</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>4</v>
+      </c>
       <c r="V9" s="4"/>
-      <c r="W9" s="10"/>
+      <c r="W9" s="4"/>
       <c r="X9" s="10"/>
-      <c r="Y9" s="4"/>
+      <c r="Y9" s="10"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
@@ -5663,36 +3255,37 @@
       <c r="BN9" s="4"/>
       <c r="BO9" s="4"/>
       <c r="BP9" s="4"/>
-    </row>
-    <row r="10" spans="2:68">
+      <c r="BQ9" s="4"/>
+    </row>
+    <row r="10" spans="2:69">
       <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="2:68">
+    <row r="11" spans="2:69">
       <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="2:68">
+    <row r="12" spans="2:69">
       <c r="B12" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="2:68">
+    <row r="13" spans="2:69">
       <c r="B13" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="2:68">
+    <row r="14" spans="2:69">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="2:68">
+    <row r="15" spans="2:69">
       <c r="B15" t="s">
         <v>41</v>
       </c>
@@ -5700,7 +3293,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="2:68">
+    <row r="16" spans="2:69">
       <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
@@ -5714,7 +3307,7 @@
       <c r="F16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="BM16" s="2"/>
+      <c r="BN16" s="2"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="4" t="s">
@@ -5776,12 +3369,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="L5:BP9">
+  <conditionalFormatting sqref="M5:BQ9">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>L$6="土"</formula>
+      <formula>M$6="土"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="4">
-      <formula>L$6="日"</formula>
+      <formula>M$6="日"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6027,11 +3620,12 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="5" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6566,21 +4160,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/サーティファイC言語検定_1級.xlsx
+++ b/サーティファイC言語検定_1級.xlsx
@@ -2532,7 +2532,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">TODAY()</f>
-        <v>43220</v>
+        <v>43221</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>10</v>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="C8" s="4">
         <f ca="1">C6-C5</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -3175,11 +3175,11 @@
       </c>
       <c r="K9" s="6">
         <f>SUM($M9:$BP9)</f>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="L9" s="6">
         <f ca="1">K9/(57-$C$8)</f>
-        <v>1.0555555555555556</v>
+        <v>1.05</v>
       </c>
       <c r="M9" s="4">
         <v>1</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>

--- a/サーティファイC言語検定_1級.xlsx
+++ b/サーティファイC言語検定_1級.xlsx
@@ -1795,8 +1795,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1901,7 +1903,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1917,9 +1919,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1927,12 +1926,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1957,6 +1950,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2479,7 +2493,7 @@
   <dimension ref="B2:BQ29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <pane xSplit="12" topLeftCell="AA1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -2493,11 +2507,13 @@
     <col min="7" max="9" width="6" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.25" customWidth="1"/>
-    <col min="13" max="18" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="52" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="52" width="5.375" bestFit="1" customWidth="1"/>
     <col min="53" max="57" width="4.375" bestFit="1" customWidth="1"/>
     <col min="58" max="64" width="5.375" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="6" bestFit="1" customWidth="1"/>
@@ -2506,12 +2522,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:69" ht="18.75">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:69" ht="18.75">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2530,239 +2546,239 @@
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <f ca="1">TODAY()</f>
-        <v>43221</v>
+        <v>43226</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="3"/>
-      <c r="M5" s="5">
+      <c r="M5" s="20">
         <f>DATE($C$22,$C$23,22)</f>
         <v>43212</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="20">
         <f>M5+1</f>
         <v>43213</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="20">
         <f t="shared" ref="O5:AM5" si="0">N5+1</f>
         <v>43214</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="20">
         <f t="shared" si="0"/>
         <v>43215</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="20">
         <f t="shared" si="0"/>
         <v>43216</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="20">
         <f t="shared" si="0"/>
         <v>43217</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="20">
         <f t="shared" si="0"/>
         <v>43218</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="20">
         <f t="shared" si="0"/>
         <v>43219</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="20">
         <f t="shared" si="0"/>
         <v>43220</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="20">
         <f t="shared" si="0"/>
         <v>43221</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="20">
         <f t="shared" si="0"/>
         <v>43222</v>
       </c>
-      <c r="X5" s="9">
+      <c r="X5" s="21">
         <f t="shared" si="0"/>
         <v>43223</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="Y5" s="21">
         <f t="shared" si="0"/>
         <v>43224</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="Z5" s="20">
         <f t="shared" si="0"/>
         <v>43225</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="20">
         <f t="shared" si="0"/>
         <v>43226</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5" s="20">
         <f t="shared" si="0"/>
         <v>43227</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AC5" s="20">
         <f t="shared" si="0"/>
         <v>43228</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AD5" s="20">
         <f t="shared" si="0"/>
         <v>43229</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AE5" s="20">
         <f t="shared" si="0"/>
         <v>43230</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AF5" s="20">
         <f t="shared" si="0"/>
         <v>43231</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AG5" s="20">
         <f t="shared" si="0"/>
         <v>43232</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AH5" s="20">
         <f t="shared" si="0"/>
         <v>43233</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AI5" s="20">
         <f t="shared" si="0"/>
         <v>43234</v>
       </c>
-      <c r="AJ5" s="5">
+      <c r="AJ5" s="20">
         <f t="shared" si="0"/>
         <v>43235</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AK5" s="20">
         <f t="shared" si="0"/>
         <v>43236</v>
       </c>
-      <c r="AL5" s="5">
+      <c r="AL5" s="20">
         <f t="shared" si="0"/>
         <v>43237</v>
       </c>
-      <c r="AM5" s="5">
+      <c r="AM5" s="20">
         <f t="shared" si="0"/>
         <v>43238</v>
       </c>
-      <c r="AN5" s="5">
+      <c r="AN5" s="20">
         <f>AM5+1</f>
         <v>43239</v>
       </c>
-      <c r="AO5" s="5">
+      <c r="AO5" s="20">
         <f t="shared" ref="AO5:BA5" si="1">AN5+1</f>
         <v>43240</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AP5" s="20">
         <f t="shared" si="1"/>
         <v>43241</v>
       </c>
-      <c r="AQ5" s="5">
+      <c r="AQ5" s="20">
         <f t="shared" si="1"/>
         <v>43242</v>
       </c>
-      <c r="AR5" s="5">
+      <c r="AR5" s="20">
         <f t="shared" si="1"/>
         <v>43243</v>
       </c>
-      <c r="AS5" s="5">
+      <c r="AS5" s="20">
         <f t="shared" si="1"/>
         <v>43244</v>
       </c>
-      <c r="AT5" s="5">
+      <c r="AT5" s="20">
         <f t="shared" si="1"/>
         <v>43245</v>
       </c>
-      <c r="AU5" s="5">
+      <c r="AU5" s="20">
         <f t="shared" si="1"/>
         <v>43246</v>
       </c>
-      <c r="AV5" s="5">
+      <c r="AV5" s="20">
         <f t="shared" si="1"/>
         <v>43247</v>
       </c>
-      <c r="AW5" s="5">
+      <c r="AW5" s="20">
         <f t="shared" si="1"/>
         <v>43248</v>
       </c>
-      <c r="AX5" s="5">
+      <c r="AX5" s="20">
         <f t="shared" si="1"/>
         <v>43249</v>
       </c>
-      <c r="AY5" s="5">
+      <c r="AY5" s="20">
         <f t="shared" si="1"/>
         <v>43250</v>
       </c>
-      <c r="AZ5" s="5">
+      <c r="AZ5" s="20">
         <f t="shared" si="1"/>
         <v>43251</v>
       </c>
-      <c r="BA5" s="5">
+      <c r="BA5" s="20">
         <f t="shared" si="1"/>
         <v>43252</v>
       </c>
-      <c r="BB5" s="5">
+      <c r="BB5" s="20">
         <f t="shared" ref="BB5" si="2">BA5+1</f>
         <v>43253</v>
       </c>
-      <c r="BC5" s="5">
+      <c r="BC5" s="20">
         <f t="shared" ref="BC5" si="3">BB5+1</f>
         <v>43254</v>
       </c>
-      <c r="BD5" s="5">
+      <c r="BD5" s="20">
         <f t="shared" ref="BD5" si="4">BC5+1</f>
         <v>43255</v>
       </c>
-      <c r="BE5" s="5">
+      <c r="BE5" s="20">
         <f t="shared" ref="BE5" si="5">BD5+1</f>
         <v>43256</v>
       </c>
-      <c r="BF5" s="5">
+      <c r="BF5" s="20">
         <f t="shared" ref="BF5" si="6">BE5+1</f>
         <v>43257</v>
       </c>
-      <c r="BG5" s="5">
+      <c r="BG5" s="20">
         <f t="shared" ref="BG5" si="7">BF5+1</f>
         <v>43258</v>
       </c>
-      <c r="BH5" s="5">
+      <c r="BH5" s="20">
         <f t="shared" ref="BH5" si="8">BG5+1</f>
         <v>43259</v>
       </c>
-      <c r="BI5" s="5">
+      <c r="BI5" s="20">
         <f t="shared" ref="BI5" si="9">BH5+1</f>
         <v>43260</v>
       </c>
-      <c r="BJ5" s="5">
+      <c r="BJ5" s="20">
         <f t="shared" ref="BJ5" si="10">BI5+1</f>
         <v>43261</v>
       </c>
-      <c r="BK5" s="5">
+      <c r="BK5" s="20">
         <f t="shared" ref="BK5" si="11">BJ5+1</f>
         <v>43262</v>
       </c>
-      <c r="BL5" s="5">
+      <c r="BL5" s="20">
         <f t="shared" ref="BL5" si="12">BK5+1</f>
         <v>43263</v>
       </c>
-      <c r="BM5" s="5">
+      <c r="BM5" s="20">
         <f t="shared" ref="BM5" si="13">BL5+1</f>
         <v>43264</v>
       </c>
-      <c r="BN5" s="5">
+      <c r="BN5" s="20">
         <f t="shared" ref="BN5" si="14">BM5+1</f>
         <v>43265</v>
       </c>
-      <c r="BO5" s="5">
+      <c r="BO5" s="20">
         <f t="shared" ref="BO5" si="15">BN5+1</f>
         <v>43266</v>
       </c>
-      <c r="BP5" s="5">
+      <c r="BP5" s="20">
         <f t="shared" ref="BP5" si="16">BO5+1</f>
         <v>43267</v>
       </c>
-      <c r="BQ5" s="5">
+      <c r="BQ5" s="20">
         <f t="shared" ref="BQ5" si="17">BP5+1</f>
         <v>43268</v>
       </c>
@@ -2771,7 +2787,7 @@
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>43268</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -2780,231 +2796,231 @@
       <c r="L6" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="M6" s="4" t="str">
+      <c r="M6" s="15" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>日</v>
       </c>
-      <c r="N6" s="4" t="str">
+      <c r="N6" s="15" t="str">
         <f t="shared" ref="N6:BA6" si="18">TEXT(N5,"aaa")</f>
         <v>月</v>
       </c>
-      <c r="O6" s="4" t="str">
+      <c r="O6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="P6" s="4" t="str">
+      <c r="P6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="Q6" s="4" t="str">
+      <c r="Q6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="R6" s="4" t="str">
+      <c r="R6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="S6" s="4" t="str">
+      <c r="S6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="T6" s="4" t="str">
+      <c r="T6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="U6" s="4" t="str">
+      <c r="U6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="V6" s="4" t="str">
+      <c r="V6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="W6" s="4" t="str">
+      <c r="W6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="X6" s="10" t="str">
+      <c r="X6" s="22" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="Y6" s="10" t="str">
+      <c r="Y6" s="22" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="Z6" s="4" t="str">
+      <c r="Z6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="AA6" s="4" t="str">
+      <c r="AA6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="AB6" s="4" t="str">
+      <c r="AB6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="AC6" s="4" t="str">
+      <c r="AC6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="AD6" s="4" t="str">
+      <c r="AD6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="AE6" s="4" t="str">
+      <c r="AE6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="AF6" s="4" t="str">
+      <c r="AF6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="AG6" s="4" t="str">
+      <c r="AG6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="AH6" s="4" t="str">
+      <c r="AH6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="AI6" s="4" t="str">
+      <c r="AI6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="AJ6" s="4" t="str">
+      <c r="AJ6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="AK6" s="4" t="str">
+      <c r="AK6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="AL6" s="4" t="str">
+      <c r="AL6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="AM6" s="4" t="str">
+      <c r="AM6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="AN6" s="4" t="str">
+      <c r="AN6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="AO6" s="4" t="str">
+      <c r="AO6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="AP6" s="4" t="str">
+      <c r="AP6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="AQ6" s="4" t="str">
+      <c r="AQ6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="AR6" s="4" t="str">
+      <c r="AR6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="AS6" s="4" t="str">
+      <c r="AS6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="AT6" s="4" t="str">
+      <c r="AT6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="AU6" s="4" t="str">
+      <c r="AU6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="AV6" s="4" t="str">
+      <c r="AV6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="AW6" s="4" t="str">
+      <c r="AW6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="AX6" s="4" t="str">
+      <c r="AX6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="AY6" s="4" t="str">
+      <c r="AY6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="AZ6" s="4" t="str">
+      <c r="AZ6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="BA6" s="4" t="str">
+      <c r="BA6" s="15" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="BB6" s="4" t="str">
+      <c r="BB6" s="15" t="str">
         <f t="shared" ref="BB6:BQ6" si="19">TEXT(BB5,"aaa")</f>
         <v>土</v>
       </c>
-      <c r="BC6" s="4" t="str">
+      <c r="BC6" s="15" t="str">
         <f t="shared" si="19"/>
         <v>日</v>
       </c>
-      <c r="BD6" s="4" t="str">
+      <c r="BD6" s="15" t="str">
         <f t="shared" si="19"/>
         <v>月</v>
       </c>
-      <c r="BE6" s="4" t="str">
+      <c r="BE6" s="15" t="str">
         <f t="shared" si="19"/>
         <v>火</v>
       </c>
-      <c r="BF6" s="4" t="str">
+      <c r="BF6" s="15" t="str">
         <f t="shared" si="19"/>
         <v>水</v>
       </c>
-      <c r="BG6" s="4" t="str">
+      <c r="BG6" s="15" t="str">
         <f t="shared" si="19"/>
         <v>木</v>
       </c>
-      <c r="BH6" s="4" t="str">
+      <c r="BH6" s="15" t="str">
         <f t="shared" si="19"/>
         <v>金</v>
       </c>
-      <c r="BI6" s="4" t="str">
+      <c r="BI6" s="15" t="str">
         <f t="shared" si="19"/>
         <v>土</v>
       </c>
-      <c r="BJ6" s="4" t="str">
+      <c r="BJ6" s="15" t="str">
         <f t="shared" si="19"/>
         <v>日</v>
       </c>
-      <c r="BK6" s="4" t="str">
+      <c r="BK6" s="15" t="str">
         <f t="shared" si="19"/>
         <v>月</v>
       </c>
-      <c r="BL6" s="4" t="str">
+      <c r="BL6" s="15" t="str">
         <f t="shared" si="19"/>
         <v>火</v>
       </c>
-      <c r="BM6" s="4" t="str">
+      <c r="BM6" s="15" t="str">
         <f t="shared" si="19"/>
         <v>水</v>
       </c>
-      <c r="BN6" s="4" t="str">
+      <c r="BN6" s="15" t="str">
         <f t="shared" si="19"/>
         <v>木</v>
       </c>
-      <c r="BO6" s="4" t="str">
+      <c r="BO6" s="15" t="str">
         <f t="shared" si="19"/>
         <v>金</v>
       </c>
-      <c r="BP6" s="4" t="str">
+      <c r="BP6" s="15" t="str">
         <f t="shared" si="19"/>
         <v>土</v>
       </c>
-      <c r="BQ6" s="4" t="str">
+      <c r="BQ6" s="15" t="str">
         <f t="shared" si="19"/>
         <v>日</v>
       </c>
@@ -3013,76 +3029,76 @@
       <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>43247</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <f>SUM($M7:$BP7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="19">
         <f t="shared" ref="L7:L8" ca="1" si="20">K7/(57-$C$8)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="4"/>
-      <c r="BH7" s="4"/>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="4"/>
-      <c r="BK7" s="4"/>
-      <c r="BL7" s="4"/>
-      <c r="BM7" s="4"/>
-      <c r="BN7" s="4"/>
-      <c r="BO7" s="4"/>
-      <c r="BP7" s="4"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="17"/>
+      <c r="AP7" s="17"/>
+      <c r="AQ7" s="17"/>
+      <c r="AR7" s="17"/>
+      <c r="AS7" s="17"/>
+      <c r="AT7" s="17"/>
+      <c r="AU7" s="17"/>
+      <c r="AV7" s="17"/>
+      <c r="AW7" s="17"/>
+      <c r="AX7" s="17"/>
+      <c r="AY7" s="17"/>
+      <c r="AZ7" s="17"/>
+      <c r="BA7" s="17"/>
+      <c r="BB7" s="17"/>
+      <c r="BC7" s="17"/>
+      <c r="BD7" s="17"/>
+      <c r="BE7" s="17"/>
+      <c r="BF7" s="17"/>
+      <c r="BG7" s="17"/>
+      <c r="BH7" s="17"/>
+      <c r="BI7" s="17"/>
+      <c r="BJ7" s="17"/>
+      <c r="BK7" s="17"/>
+      <c r="BL7" s="17"/>
+      <c r="BM7" s="17"/>
+      <c r="BN7" s="17"/>
+      <c r="BO7" s="17"/>
+      <c r="BP7" s="17"/>
       <c r="BQ7" s="4"/>
     </row>
     <row r="8" spans="2:69">
@@ -3091,7 +3107,7 @@
       </c>
       <c r="C8" s="4">
         <f ca="1">C6-C5</f>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -3099,191 +3115,203 @@
       <c r="J8" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <f>SUM($M8:$BP8)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="19">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="17">
         <v>0</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-      <c r="BF8" s="4"/>
-      <c r="BG8" s="4"/>
-      <c r="BH8" s="4"/>
-      <c r="BI8" s="4"/>
-      <c r="BJ8" s="4"/>
-      <c r="BK8" s="4"/>
-      <c r="BL8" s="4"/>
-      <c r="BM8" s="4"/>
-      <c r="BN8" s="4"/>
-      <c r="BO8" s="4"/>
-      <c r="BP8" s="4"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="17"/>
+      <c r="AO8" s="17"/>
+      <c r="AP8" s="17"/>
+      <c r="AQ8" s="17"/>
+      <c r="AR8" s="17"/>
+      <c r="AS8" s="17"/>
+      <c r="AT8" s="17"/>
+      <c r="AU8" s="17"/>
+      <c r="AV8" s="17"/>
+      <c r="AW8" s="17"/>
+      <c r="AX8" s="17"/>
+      <c r="AY8" s="17"/>
+      <c r="AZ8" s="17"/>
+      <c r="BA8" s="17"/>
+      <c r="BB8" s="17"/>
+      <c r="BC8" s="17"/>
+      <c r="BD8" s="17"/>
+      <c r="BE8" s="17"/>
+      <c r="BF8" s="17"/>
+      <c r="BG8" s="17"/>
+      <c r="BH8" s="17"/>
+      <c r="BI8" s="17"/>
+      <c r="BJ8" s="17"/>
+      <c r="BK8" s="17"/>
+      <c r="BL8" s="17"/>
+      <c r="BM8" s="17"/>
+      <c r="BN8" s="17"/>
+      <c r="BO8" s="17"/>
+      <c r="BP8" s="17"/>
       <c r="BQ8" s="4"/>
     </row>
     <row r="9" spans="2:69">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <f>SUM($M9:$BP9)</f>
-        <v>10.5</v>
-      </c>
-      <c r="L9" s="6">
+        <v>20.75</v>
+      </c>
+      <c r="L9" s="19">
         <f ca="1">K9/(57-$C$8)</f>
-        <v>1.05</v>
-      </c>
-      <c r="M9" s="4">
+        <v>1.3833333333333333</v>
+      </c>
+      <c r="M9" s="17">
         <v>1</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="17">
         <v>1</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="17">
         <v>1</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="17">
         <v>0.5</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="17">
         <v>0</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="17">
         <v>0</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="17">
         <v>2</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="17">
         <v>0</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="17">
         <v>5</v>
       </c>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4"/>
-      <c r="AX9" s="4"/>
-      <c r="AY9" s="4"/>
-      <c r="AZ9" s="4"/>
-      <c r="BA9" s="4"/>
-      <c r="BB9" s="4"/>
-      <c r="BC9" s="4"/>
-      <c r="BD9" s="4"/>
-      <c r="BE9" s="4"/>
-      <c r="BF9" s="4"/>
-      <c r="BG9" s="4"/>
-      <c r="BH9" s="4"/>
-      <c r="BI9" s="4"/>
-      <c r="BJ9" s="4"/>
-      <c r="BK9" s="4"/>
-      <c r="BL9" s="4"/>
-      <c r="BM9" s="4"/>
-      <c r="BN9" s="4"/>
-      <c r="BO9" s="4"/>
-      <c r="BP9" s="4"/>
+      <c r="V9" s="17">
+        <v>1.25</v>
+      </c>
+      <c r="W9" s="17">
+        <v>1</v>
+      </c>
+      <c r="X9" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="17">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="17">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="17"/>
+      <c r="AQ9" s="17"/>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="17"/>
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="17"/>
+      <c r="AW9" s="17"/>
+      <c r="AX9" s="17"/>
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="17"/>
+      <c r="BA9" s="17"/>
+      <c r="BB9" s="17"/>
+      <c r="BC9" s="17"/>
+      <c r="BD9" s="17"/>
+      <c r="BE9" s="17"/>
+      <c r="BF9" s="17"/>
+      <c r="BG9" s="17"/>
+      <c r="BH9" s="17"/>
+      <c r="BI9" s="17"/>
+      <c r="BJ9" s="17"/>
+      <c r="BK9" s="17"/>
+      <c r="BL9" s="17"/>
+      <c r="BM9" s="17"/>
+      <c r="BN9" s="17"/>
+      <c r="BO9" s="17"/>
+      <c r="BP9" s="17"/>
       <c r="BQ9" s="4"/>
     </row>
     <row r="10" spans="2:69">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="2:69">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="2:69">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="2:69">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="2:69">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="2:69">
       <c r="B15" t="s">
@@ -3300,11 +3328,11 @@
       <c r="C16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="11">
         <f>($C$17+$C$18*2+$C$19*3)/6</f>
         <v>100</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="8" t="s">
         <v>45</v>
       </c>
       <c r="BN16" s="2"/>
@@ -3316,9 +3344,9 @@
       <c r="C17" s="4">
         <v>70</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="4" t="s">
@@ -3360,12 +3388,12 @@
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="13"/>
+      <c r="B29" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3431,10 +3459,10 @@
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -3446,8 +3474,8 @@
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="C6" s="18"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -3459,8 +3487,8 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="C7" s="18"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -3472,8 +3500,8 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="C8" s="18"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -3485,8 +3513,8 @@
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="C9" s="18"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -3498,8 +3526,8 @@
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="C10" s="18"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -3511,8 +3539,8 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="C11" s="18"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -3524,8 +3552,8 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="C12" s="18"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -3537,8 +3565,8 @@
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="C13" s="18"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -3550,8 +3578,8 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="C14" s="18"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -3563,8 +3591,8 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="C15" s="18"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -3576,8 +3604,8 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="C16" s="18"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -3589,8 +3617,8 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="3:13">
-      <c r="C17" s="18"/>
-      <c r="D17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -3790,7 +3818,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="11" max="11" width="3.25" style="17" customWidth="1"/>
+    <col min="11" max="11" width="3.25" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
@@ -3820,7 +3848,7 @@
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>53</v>
       </c>
     </row>

--- a/サーティファイC言語検定_1級.xlsx
+++ b/サーティファイC言語検定_1級.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="122">
   <si>
     <t>本日</t>
     <rPh sb="0" eb="2">
@@ -1790,6 +1790,53 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>申し込み状況</t>
+    <rPh sb="0" eb="1">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>池田</t>
+    <rPh sb="0" eb="2">
+      <t>イケダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未達成/完了</t>
+    <rPh sb="0" eb="3">
+      <t>ミタッセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未申込</t>
+  </si>
+  <si>
+    <t>申込まで</t>
+    <rPh sb="0" eb="2">
+      <t>モウシコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1798,7 +1845,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1843,7 +1890,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1862,8 +1909,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1890,7 +1943,50 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1903,7 +1999,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1911,9 +2007,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1949,35 +2042,413 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2016,13 +2487,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -2077,13 +2548,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>67</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -2138,13 +2609,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -2490,10 +2961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:BQ29"/>
+  <dimension ref="B2:BR29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <pane xSplit="13" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -2506,905 +2977,1041 @@
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="6" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.25" customWidth="1"/>
-    <col min="13" max="13" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="28" max="52" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="53" max="57" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="58" max="64" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="6" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="68" max="69" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="13" width="8.25" customWidth="1"/>
+    <col min="14" max="14" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="33" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="36" max="53" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="54" max="58" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="59" max="65" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="6" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:69" ht="18.75">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:70" ht="18.75">
+      <c r="B2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:69" ht="18.75">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:70" ht="18.75">
+      <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:69">
-      <c r="M4" t="s">
+    <row r="4" spans="2:70">
+      <c r="N4" t="s">
         <v>6</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>7</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:69">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:70" ht="14.25" thickBot="1">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <f ca="1">TODAY()</f>
-        <v>43226</v>
-      </c>
-      <c r="K5" s="3" t="s">
+        <v>43233</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="20">
-        <f>DATE($C$22,$C$23,22)</f>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22">
+        <f>DATE($C$23,$C$24,22)</f>
         <v>43212</v>
       </c>
-      <c r="N5" s="20">
-        <f>M5+1</f>
+      <c r="O5" s="22">
+        <f>N5+1</f>
         <v>43213</v>
       </c>
-      <c r="O5" s="20">
-        <f t="shared" ref="O5:AM5" si="0">N5+1</f>
+      <c r="P5" s="22">
+        <f t="shared" ref="P5:AN5" si="0">O5+1</f>
         <v>43214</v>
       </c>
-      <c r="P5" s="20">
+      <c r="Q5" s="22">
         <f t="shared" si="0"/>
         <v>43215</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="R5" s="22">
         <f t="shared" si="0"/>
         <v>43216</v>
       </c>
-      <c r="R5" s="20">
+      <c r="S5" s="22">
         <f t="shared" si="0"/>
         <v>43217</v>
       </c>
-      <c r="S5" s="20">
+      <c r="T5" s="22">
         <f t="shared" si="0"/>
         <v>43218</v>
       </c>
-      <c r="T5" s="20">
+      <c r="U5" s="22">
         <f t="shared" si="0"/>
         <v>43219</v>
       </c>
-      <c r="U5" s="20">
+      <c r="V5" s="22">
         <f t="shared" si="0"/>
         <v>43220</v>
       </c>
-      <c r="V5" s="20">
+      <c r="W5" s="22">
         <f t="shared" si="0"/>
         <v>43221</v>
       </c>
-      <c r="W5" s="20">
+      <c r="X5" s="22">
         <f t="shared" si="0"/>
         <v>43222</v>
       </c>
-      <c r="X5" s="21">
+      <c r="Y5" s="23">
         <f t="shared" si="0"/>
         <v>43223</v>
       </c>
-      <c r="Y5" s="21">
+      <c r="Z5" s="23">
         <f t="shared" si="0"/>
         <v>43224</v>
       </c>
-      <c r="Z5" s="20">
+      <c r="AA5" s="22">
         <f t="shared" si="0"/>
         <v>43225</v>
       </c>
-      <c r="AA5" s="20">
+      <c r="AB5" s="22">
         <f t="shared" si="0"/>
         <v>43226</v>
       </c>
-      <c r="AB5" s="20">
+      <c r="AC5" s="22">
         <f t="shared" si="0"/>
         <v>43227</v>
       </c>
-      <c r="AC5" s="20">
+      <c r="AD5" s="22">
         <f t="shared" si="0"/>
         <v>43228</v>
       </c>
-      <c r="AD5" s="20">
+      <c r="AE5" s="22">
         <f t="shared" si="0"/>
         <v>43229</v>
       </c>
-      <c r="AE5" s="20">
+      <c r="AF5" s="22">
         <f t="shared" si="0"/>
         <v>43230</v>
       </c>
-      <c r="AF5" s="20">
+      <c r="AG5" s="22">
         <f t="shared" si="0"/>
         <v>43231</v>
       </c>
-      <c r="AG5" s="20">
+      <c r="AH5" s="22">
         <f t="shared" si="0"/>
         <v>43232</v>
       </c>
-      <c r="AH5" s="20">
+      <c r="AI5" s="22">
         <f t="shared" si="0"/>
         <v>43233</v>
       </c>
-      <c r="AI5" s="20">
+      <c r="AJ5" s="22">
         <f t="shared" si="0"/>
         <v>43234</v>
       </c>
-      <c r="AJ5" s="20">
+      <c r="AK5" s="22">
         <f t="shared" si="0"/>
         <v>43235</v>
       </c>
-      <c r="AK5" s="20">
+      <c r="AL5" s="22">
         <f t="shared" si="0"/>
         <v>43236</v>
       </c>
-      <c r="AL5" s="20">
+      <c r="AM5" s="22">
         <f t="shared" si="0"/>
         <v>43237</v>
       </c>
-      <c r="AM5" s="20">
+      <c r="AN5" s="22">
         <f t="shared" si="0"/>
         <v>43238</v>
       </c>
-      <c r="AN5" s="20">
-        <f>AM5+1</f>
+      <c r="AO5" s="22">
+        <f>AN5+1</f>
         <v>43239</v>
       </c>
-      <c r="AO5" s="20">
-        <f t="shared" ref="AO5:BA5" si="1">AN5+1</f>
+      <c r="AP5" s="22">
+        <f t="shared" ref="AP5:BB5" si="1">AO5+1</f>
         <v>43240</v>
       </c>
-      <c r="AP5" s="20">
+      <c r="AQ5" s="22">
         <f t="shared" si="1"/>
         <v>43241</v>
       </c>
-      <c r="AQ5" s="20">
+      <c r="AR5" s="22">
         <f t="shared" si="1"/>
         <v>43242</v>
       </c>
-      <c r="AR5" s="20">
+      <c r="AS5" s="22">
         <f t="shared" si="1"/>
         <v>43243</v>
       </c>
-      <c r="AS5" s="20">
+      <c r="AT5" s="22">
         <f t="shared" si="1"/>
         <v>43244</v>
       </c>
-      <c r="AT5" s="20">
+      <c r="AU5" s="22">
         <f t="shared" si="1"/>
         <v>43245</v>
       </c>
-      <c r="AU5" s="20">
+      <c r="AV5" s="22">
         <f t="shared" si="1"/>
         <v>43246</v>
       </c>
-      <c r="AV5" s="20">
+      <c r="AW5" s="22">
         <f t="shared" si="1"/>
         <v>43247</v>
       </c>
-      <c r="AW5" s="20">
+      <c r="AX5" s="22">
         <f t="shared" si="1"/>
         <v>43248</v>
       </c>
-      <c r="AX5" s="20">
+      <c r="AY5" s="22">
         <f t="shared" si="1"/>
         <v>43249</v>
       </c>
-      <c r="AY5" s="20">
+      <c r="AZ5" s="22">
         <f t="shared" si="1"/>
         <v>43250</v>
       </c>
-      <c r="AZ5" s="20">
+      <c r="BA5" s="22">
         <f t="shared" si="1"/>
         <v>43251</v>
       </c>
-      <c r="BA5" s="20">
+      <c r="BB5" s="22">
         <f t="shared" si="1"/>
         <v>43252</v>
       </c>
-      <c r="BB5" s="20">
-        <f t="shared" ref="BB5" si="2">BA5+1</f>
+      <c r="BC5" s="22">
+        <f t="shared" ref="BC5" si="2">BB5+1</f>
         <v>43253</v>
       </c>
-      <c r="BC5" s="20">
-        <f t="shared" ref="BC5" si="3">BB5+1</f>
+      <c r="BD5" s="22">
+        <f t="shared" ref="BD5" si="3">BC5+1</f>
         <v>43254</v>
       </c>
-      <c r="BD5" s="20">
-        <f t="shared" ref="BD5" si="4">BC5+1</f>
+      <c r="BE5" s="22">
+        <f t="shared" ref="BE5" si="4">BD5+1</f>
         <v>43255</v>
       </c>
-      <c r="BE5" s="20">
-        <f t="shared" ref="BE5" si="5">BD5+1</f>
+      <c r="BF5" s="22">
+        <f t="shared" ref="BF5" si="5">BE5+1</f>
         <v>43256</v>
       </c>
-      <c r="BF5" s="20">
-        <f t="shared" ref="BF5" si="6">BE5+1</f>
+      <c r="BG5" s="22">
+        <f t="shared" ref="BG5" si="6">BF5+1</f>
         <v>43257</v>
       </c>
-      <c r="BG5" s="20">
-        <f t="shared" ref="BG5" si="7">BF5+1</f>
+      <c r="BH5" s="22">
+        <f t="shared" ref="BH5" si="7">BG5+1</f>
         <v>43258</v>
       </c>
-      <c r="BH5" s="20">
-        <f t="shared" ref="BH5" si="8">BG5+1</f>
+      <c r="BI5" s="22">
+        <f t="shared" ref="BI5" si="8">BH5+1</f>
         <v>43259</v>
       </c>
-      <c r="BI5" s="20">
-        <f t="shared" ref="BI5" si="9">BH5+1</f>
+      <c r="BJ5" s="22">
+        <f t="shared" ref="BJ5" si="9">BI5+1</f>
         <v>43260</v>
       </c>
-      <c r="BJ5" s="20">
-        <f t="shared" ref="BJ5" si="10">BI5+1</f>
+      <c r="BK5" s="22">
+        <f t="shared" ref="BK5" si="10">BJ5+1</f>
         <v>43261</v>
       </c>
-      <c r="BK5" s="20">
-        <f t="shared" ref="BK5" si="11">BJ5+1</f>
+      <c r="BL5" s="22">
+        <f t="shared" ref="BL5" si="11">BK5+1</f>
         <v>43262</v>
       </c>
-      <c r="BL5" s="20">
-        <f t="shared" ref="BL5" si="12">BK5+1</f>
+      <c r="BM5" s="22">
+        <f t="shared" ref="BM5" si="12">BL5+1</f>
         <v>43263</v>
       </c>
-      <c r="BM5" s="20">
-        <f t="shared" ref="BM5" si="13">BL5+1</f>
+      <c r="BN5" s="22">
+        <f t="shared" ref="BN5" si="13">BM5+1</f>
         <v>43264</v>
       </c>
-      <c r="BN5" s="20">
-        <f t="shared" ref="BN5" si="14">BM5+1</f>
+      <c r="BO5" s="22">
+        <f t="shared" ref="BO5" si="14">BN5+1</f>
         <v>43265</v>
       </c>
-      <c r="BO5" s="20">
-        <f t="shared" ref="BO5" si="15">BN5+1</f>
+      <c r="BP5" s="22">
+        <f t="shared" ref="BP5" si="15">BO5+1</f>
         <v>43266</v>
       </c>
-      <c r="BP5" s="20">
-        <f t="shared" ref="BP5" si="16">BO5+1</f>
+      <c r="BQ5" s="22">
+        <f t="shared" ref="BQ5" si="16">BP5+1</f>
         <v>43267</v>
       </c>
-      <c r="BQ5" s="20">
-        <f t="shared" ref="BQ5" si="17">BP5+1</f>
+      <c r="BR5" s="22">
+        <f t="shared" ref="BR5" si="17">BQ5+1</f>
         <v>43268</v>
       </c>
     </row>
-    <row r="6" spans="2:69">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:70" ht="14.25" thickTop="1">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>43268</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="M6" s="15" t="str">
-        <f>TEXT(M5,"aaa")</f>
+      <c r="N6" s="19" t="str">
+        <f>TEXT(N5,"aaa")</f>
         <v>日</v>
       </c>
-      <c r="N6" s="15" t="str">
-        <f t="shared" ref="N6:BA6" si="18">TEXT(N5,"aaa")</f>
+      <c r="O6" s="19" t="str">
+        <f t="shared" ref="O6:BB6" si="18">TEXT(O5,"aaa")</f>
         <v>月</v>
       </c>
-      <c r="O6" s="15" t="str">
+      <c r="P6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="P6" s="15" t="str">
+      <c r="Q6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="Q6" s="15" t="str">
+      <c r="R6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="R6" s="15" t="str">
+      <c r="S6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="S6" s="15" t="str">
+      <c r="T6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="T6" s="15" t="str">
+      <c r="U6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="U6" s="15" t="str">
+      <c r="V6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="V6" s="15" t="str">
+      <c r="W6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="W6" s="15" t="str">
+      <c r="X6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="X6" s="22" t="str">
+      <c r="Y6" s="20" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="Y6" s="22" t="str">
+      <c r="Z6" s="20" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="Z6" s="15" t="str">
+      <c r="AA6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="AA6" s="15" t="str">
+      <c r="AB6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="AB6" s="15" t="str">
+      <c r="AC6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="AC6" s="15" t="str">
+      <c r="AD6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="AD6" s="15" t="str">
+      <c r="AE6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="AE6" s="15" t="str">
+      <c r="AF6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="AF6" s="15" t="str">
+      <c r="AG6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="AG6" s="15" t="str">
+      <c r="AH6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="AH6" s="15" t="str">
+      <c r="AI6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="AI6" s="15" t="str">
+      <c r="AJ6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="AJ6" s="15" t="str">
+      <c r="AK6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="AK6" s="15" t="str">
+      <c r="AL6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="AL6" s="15" t="str">
+      <c r="AM6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="AM6" s="15" t="str">
+      <c r="AN6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="AN6" s="15" t="str">
+      <c r="AO6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="AO6" s="15" t="str">
+      <c r="AP6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="AP6" s="15" t="str">
+      <c r="AQ6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="AQ6" s="15" t="str">
+      <c r="AR6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="AR6" s="15" t="str">
+      <c r="AS6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="AS6" s="15" t="str">
+      <c r="AT6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="AT6" s="15" t="str">
+      <c r="AU6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="AU6" s="15" t="str">
+      <c r="AV6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="AV6" s="15" t="str">
+      <c r="AW6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="AW6" s="15" t="str">
+      <c r="AX6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="AX6" s="15" t="str">
+      <c r="AY6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="AY6" s="15" t="str">
+      <c r="AZ6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="AZ6" s="15" t="str">
+      <c r="BA6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="BA6" s="15" t="str">
+      <c r="BB6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="BB6" s="15" t="str">
-        <f t="shared" ref="BB6:BQ6" si="19">TEXT(BB5,"aaa")</f>
+      <c r="BC6" s="19" t="str">
+        <f t="shared" ref="BC6:BR6" si="19">TEXT(BC5,"aaa")</f>
         <v>土</v>
       </c>
-      <c r="BC6" s="15" t="str">
+      <c r="BD6" s="19" t="str">
         <f t="shared" si="19"/>
         <v>日</v>
       </c>
-      <c r="BD6" s="15" t="str">
+      <c r="BE6" s="19" t="str">
         <f t="shared" si="19"/>
         <v>月</v>
       </c>
-      <c r="BE6" s="15" t="str">
+      <c r="BF6" s="19" t="str">
         <f t="shared" si="19"/>
         <v>火</v>
       </c>
-      <c r="BF6" s="15" t="str">
+      <c r="BG6" s="19" t="str">
         <f t="shared" si="19"/>
         <v>水</v>
       </c>
-      <c r="BG6" s="15" t="str">
+      <c r="BH6" s="19" t="str">
         <f t="shared" si="19"/>
         <v>木</v>
       </c>
-      <c r="BH6" s="15" t="str">
+      <c r="BI6" s="19" t="str">
         <f t="shared" si="19"/>
         <v>金</v>
       </c>
-      <c r="BI6" s="15" t="str">
+      <c r="BJ6" s="19" t="str">
         <f t="shared" si="19"/>
         <v>土</v>
       </c>
-      <c r="BJ6" s="15" t="str">
+      <c r="BK6" s="19" t="str">
         <f t="shared" si="19"/>
         <v>日</v>
       </c>
-      <c r="BK6" s="15" t="str">
+      <c r="BL6" s="19" t="str">
         <f t="shared" si="19"/>
         <v>月</v>
       </c>
-      <c r="BL6" s="15" t="str">
+      <c r="BM6" s="19" t="str">
         <f t="shared" si="19"/>
         <v>火</v>
       </c>
-      <c r="BM6" s="15" t="str">
+      <c r="BN6" s="19" t="str">
         <f t="shared" si="19"/>
         <v>水</v>
       </c>
-      <c r="BN6" s="15" t="str">
+      <c r="BO6" s="19" t="str">
         <f t="shared" si="19"/>
         <v>木</v>
       </c>
-      <c r="BO6" s="15" t="str">
+      <c r="BP6" s="19" t="str">
         <f t="shared" si="19"/>
         <v>金</v>
       </c>
-      <c r="BP6" s="15" t="str">
+      <c r="BQ6" s="19" t="str">
         <f t="shared" si="19"/>
         <v>土</v>
       </c>
-      <c r="BQ6" s="15" t="str">
+      <c r="BR6" s="19" t="str">
         <f t="shared" si="19"/>
         <v>日</v>
       </c>
     </row>
-    <row r="7" spans="2:69">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:70">
+      <c r="B7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>43247</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="5">
-        <f>SUM($M7:$BP7)</f>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4">
+        <f>SUM($N7:$BQ7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="19">
-        <f t="shared" ref="L7:L8" ca="1" si="20">K7/(57-$C$8)</f>
+      <c r="M7" s="16">
+        <f ca="1">L7/(57-$C$9)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="17"/>
-      <c r="AP7" s="17"/>
-      <c r="AQ7" s="17"/>
-      <c r="AR7" s="17"/>
-      <c r="AS7" s="17"/>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="17"/>
-      <c r="AW7" s="17"/>
-      <c r="AX7" s="17"/>
-      <c r="AY7" s="17"/>
-      <c r="AZ7" s="17"/>
-      <c r="BA7" s="17"/>
-      <c r="BB7" s="17"/>
-      <c r="BC7" s="17"/>
-      <c r="BD7" s="17"/>
-      <c r="BE7" s="17"/>
-      <c r="BF7" s="17"/>
-      <c r="BG7" s="17"/>
-      <c r="BH7" s="17"/>
-      <c r="BI7" s="17"/>
-      <c r="BJ7" s="17"/>
-      <c r="BK7" s="17"/>
-      <c r="BL7" s="17"/>
-      <c r="BM7" s="17"/>
-      <c r="BN7" s="17"/>
-      <c r="BO7" s="17"/>
-      <c r="BP7" s="17"/>
-      <c r="BQ7" s="4"/>
-    </row>
-    <row r="8" spans="2:69">
-      <c r="B8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <f ca="1">C6-C5</f>
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="14"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="14"/>
+      <c r="BF7" s="14"/>
+      <c r="BG7" s="14"/>
+      <c r="BH7" s="14"/>
+      <c r="BI7" s="14"/>
+      <c r="BJ7" s="14"/>
+      <c r="BK7" s="14"/>
+      <c r="BL7" s="14"/>
+      <c r="BM7" s="14"/>
+      <c r="BN7" s="14"/>
+      <c r="BO7" s="14"/>
+      <c r="BP7" s="14"/>
+      <c r="BQ7" s="14"/>
+      <c r="BR7" s="3"/>
+    </row>
+    <row r="8" spans="2:70">
+      <c r="B8" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="26">
+        <f ca="1">$C$7-$C$5</f>
+        <v>14</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="5">
-        <f>SUM($M8:$BP8)</f>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4">
+        <f>SUM($N8:$BQ8)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="19">
-        <f t="shared" ca="1" si="20"/>
+      <c r="M8" s="16">
+        <f ca="1">L8/(57-$C$9)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="17">
+      <c r="N8" s="14">
         <v>0</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="17"/>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="17"/>
-      <c r="AN8" s="17"/>
-      <c r="AO8" s="17"/>
-      <c r="AP8" s="17"/>
-      <c r="AQ8" s="17"/>
-      <c r="AR8" s="17"/>
-      <c r="AS8" s="17"/>
-      <c r="AT8" s="17"/>
-      <c r="AU8" s="17"/>
-      <c r="AV8" s="17"/>
-      <c r="AW8" s="17"/>
-      <c r="AX8" s="17"/>
-      <c r="AY8" s="17"/>
-      <c r="AZ8" s="17"/>
-      <c r="BA8" s="17"/>
-      <c r="BB8" s="17"/>
-      <c r="BC8" s="17"/>
-      <c r="BD8" s="17"/>
-      <c r="BE8" s="17"/>
-      <c r="BF8" s="17"/>
-      <c r="BG8" s="17"/>
-      <c r="BH8" s="17"/>
-      <c r="BI8" s="17"/>
-      <c r="BJ8" s="17"/>
-      <c r="BK8" s="17"/>
-      <c r="BL8" s="17"/>
-      <c r="BM8" s="17"/>
-      <c r="BN8" s="17"/>
-      <c r="BO8" s="17"/>
-      <c r="BP8" s="17"/>
-      <c r="BQ8" s="4"/>
-    </row>
-    <row r="9" spans="2:69">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="14"/>
+      <c r="BB8" s="14"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="14"/>
+      <c r="BF8" s="14"/>
+      <c r="BG8" s="14"/>
+      <c r="BH8" s="14"/>
+      <c r="BI8" s="14"/>
+      <c r="BJ8" s="14"/>
+      <c r="BK8" s="14"/>
+      <c r="BL8" s="14"/>
+      <c r="BM8" s="14"/>
+      <c r="BN8" s="14"/>
+      <c r="BO8" s="14"/>
+      <c r="BP8" s="14"/>
+      <c r="BQ8" s="14"/>
+      <c r="BR8" s="3"/>
+    </row>
+    <row r="9" spans="2:70">
+      <c r="B9" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="26">
+        <f ca="1">$C$6-$C$5</f>
+        <v>35</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>3</v>
+      </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="5">
-        <f>SUM($M9:$BP9)</f>
-        <v>20.75</v>
-      </c>
-      <c r="L9" s="19">
-        <f ca="1">K9/(57-$C$8)</f>
-        <v>1.3833333333333333</v>
-      </c>
-      <c r="M9" s="17">
+      <c r="K9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" s="4">
+        <f>SUM($N9:$BQ9)</f>
+        <v>26.25</v>
+      </c>
+      <c r="M9" s="16">
+        <f ca="1">L9/(57-$C$9)</f>
+        <v>1.1931818181818181</v>
+      </c>
+      <c r="N9" s="14">
         <v>1</v>
       </c>
-      <c r="N9" s="17">
+      <c r="O9" s="14">
         <v>1</v>
       </c>
-      <c r="O9" s="17">
+      <c r="P9" s="14">
         <v>1</v>
       </c>
-      <c r="P9" s="17">
+      <c r="Q9" s="14">
         <v>0.5</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="R9" s="14">
         <v>0</v>
       </c>
-      <c r="R9" s="17">
+      <c r="S9" s="14">
         <v>0</v>
       </c>
-      <c r="S9" s="17">
+      <c r="T9" s="14">
         <v>2</v>
       </c>
-      <c r="T9" s="17">
+      <c r="U9" s="14">
         <v>0</v>
       </c>
-      <c r="U9" s="17">
+      <c r="V9" s="14">
         <v>5</v>
       </c>
-      <c r="V9" s="17">
+      <c r="W9" s="14">
         <v>1.25</v>
       </c>
-      <c r="W9" s="17">
+      <c r="X9" s="14">
         <v>1</v>
       </c>
-      <c r="X9" s="18">
+      <c r="Y9" s="15">
         <v>1</v>
       </c>
-      <c r="Y9" s="18">
+      <c r="Z9" s="15">
         <v>0</v>
       </c>
-      <c r="Z9" s="17">
+      <c r="AA9" s="14">
         <v>4</v>
       </c>
-      <c r="AA9" s="17">
+      <c r="AB9" s="14">
         <v>3</v>
       </c>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="17"/>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="17"/>
-      <c r="AO9" s="17"/>
-      <c r="AP9" s="17"/>
-      <c r="AQ9" s="17"/>
-      <c r="AR9" s="17"/>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="17"/>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="17"/>
-      <c r="AW9" s="17"/>
-      <c r="AX9" s="17"/>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="17"/>
-      <c r="BA9" s="17"/>
-      <c r="BB9" s="17"/>
-      <c r="BC9" s="17"/>
-      <c r="BD9" s="17"/>
-      <c r="BE9" s="17"/>
-      <c r="BF9" s="17"/>
-      <c r="BG9" s="17"/>
-      <c r="BH9" s="17"/>
-      <c r="BI9" s="17"/>
-      <c r="BJ9" s="17"/>
-      <c r="BK9" s="17"/>
-      <c r="BL9" s="17"/>
-      <c r="BM9" s="17"/>
-      <c r="BN9" s="17"/>
-      <c r="BO9" s="17"/>
-      <c r="BP9" s="17"/>
-      <c r="BQ9" s="4"/>
-    </row>
-    <row r="10" spans="2:69">
-      <c r="B10" s="9" t="s">
+      <c r="AC9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AH9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="14">
+        <v>3</v>
+      </c>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="14"/>
+      <c r="BB9" s="14"/>
+      <c r="BC9" s="14"/>
+      <c r="BD9" s="14"/>
+      <c r="BE9" s="14"/>
+      <c r="BF9" s="14"/>
+      <c r="BG9" s="14"/>
+      <c r="BH9" s="14"/>
+      <c r="BI9" s="14"/>
+      <c r="BJ9" s="14"/>
+      <c r="BK9" s="14"/>
+      <c r="BL9" s="14"/>
+      <c r="BM9" s="14"/>
+      <c r="BN9" s="14"/>
+      <c r="BO9" s="14"/>
+      <c r="BP9" s="14"/>
+      <c r="BQ9" s="14"/>
+      <c r="BR9" s="3"/>
+    </row>
+    <row r="10" spans="2:70">
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4">
+        <f>SUM($N10:$BQ10)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="16">
+        <f ca="1">L10/(57-$C$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="14"/>
+      <c r="BC10" s="14"/>
+      <c r="BD10" s="14"/>
+      <c r="BE10" s="14"/>
+      <c r="BF10" s="14"/>
+      <c r="BG10" s="14"/>
+      <c r="BH10" s="14"/>
+      <c r="BI10" s="14"/>
+      <c r="BJ10" s="14"/>
+      <c r="BK10" s="14"/>
+      <c r="BL10" s="14"/>
+      <c r="BM10" s="14"/>
+      <c r="BN10" s="14"/>
+      <c r="BO10" s="14"/>
+      <c r="BP10" s="14"/>
+      <c r="BQ10" s="14"/>
+      <c r="BR10" s="3"/>
+    </row>
+    <row r="11" spans="2:70">
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="2:69">
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="2:70">
+      <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="2:69">
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="2:70">
+      <c r="B13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="2:69">
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="2:70">
+      <c r="B14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="2:69">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="2:69">
-      <c r="B15" t="s">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="2:70">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="2:70">
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="2:69">
-      <c r="B16" s="4" t="s">
+      <c r="F16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="BO16" s="2"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="11">
-        <f>($C$17+$C$18*2+$C$19*3)/6</f>
+      <c r="E17" s="10">
+        <f>($C$18+$C$19*2+$C$20*3)/6</f>
         <v>100</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="BN16" s="2"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="4" t="s">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C18" s="3">
         <v>70</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="4" t="s">
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C19" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="4" t="s">
+    <row r="20" spans="2:9">
+      <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" t="s">
+    <row r="22" spans="2:9" hidden="1">
+      <c r="B22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:9" hidden="1">
-      <c r="B22" s="4" t="s">
+    <row r="23" spans="2:9" hidden="1">
+      <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C23" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="2:9" hidden="1">
-      <c r="B23" s="4" t="s">
+    <row r="24" spans="2:9">
+      <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C24" s="3">
         <v>4</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="9" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="10"/>
+      <c r="B29" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="M5:BQ9">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>M$6="土"</formula>
+  <conditionalFormatting sqref="N5:BR9">
+    <cfRule type="expression" dxfId="14" priority="9">
+      <formula>N$6="土"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>M$6="日"</formula>
+    <cfRule type="expression" dxfId="13" priority="10">
+      <formula>N$6="日"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N10:BR10">
+    <cfRule type="expression" dxfId="12" priority="5">
+      <formula>N$6="土"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>N$6="日"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:K10">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>"申込済"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>"未申込"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C9">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K10">
+      <formula1>"未申込, 申込済, "</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3459,175 +4066,175 @@
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="C6" s="16"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="C7" s="16"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="C8" s="16"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="C9" s="16"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="C10" s="16"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="C11" s="16"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="C12" s="16"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="C13" s="16"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="C14" s="16"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="C15" s="16"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="C16" s="16"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="3:13">
-      <c r="C17" s="16"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="3:13">
       <c r="C18" t="s">
@@ -3673,134 +4280,134 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="39.75" customHeight="1">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:5" ht="39.75" customHeight="1">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <f>B7+1</f>
         <v>2</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" ht="39.75" customHeight="1">
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <f t="shared" ref="B9:B15" si="0">B8+1</f>
         <v>3</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5" ht="36" customHeight="1">
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5" ht="36" customHeight="1">
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5" ht="36" customHeight="1">
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5" ht="36" customHeight="1">
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5" ht="36" customHeight="1">
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5" ht="36" customHeight="1">
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5" ht="36" customHeight="1">
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <f t="shared" ref="B16:B19" si="1">B15+1</f>
         <v>10</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" ht="36" customHeight="1">
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" ht="36" customHeight="1">
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" ht="36" customHeight="1">
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3818,7 +4425,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="11" max="11" width="3.25" style="14" customWidth="1"/>
+    <col min="11" max="11" width="3.25" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
@@ -3848,7 +4455,7 @@
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>53</v>
       </c>
     </row>

--- a/サーティファイC言語検定_1級.xlsx
+++ b/サーティファイC言語検定_1級.xlsx
@@ -1821,9 +1821,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未申込</t>
-  </si>
-  <si>
     <t>申込まで</t>
     <rPh sb="0" eb="2">
       <t>モウシコミ</t>
@@ -1836,6 +1833,9 @@
       <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申込済</t>
   </si>
 </sst>
 </file>
@@ -2051,9 +2051,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2084,23 +2081,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <condense val="0"/>
@@ -2146,282 +2134,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2965,7 +2677,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="13" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2987,7 +2699,11 @@
     <col min="27" max="28" width="6.375" bestFit="1" customWidth="1"/>
     <col min="29" max="33" width="5.5" bestFit="1" customWidth="1"/>
     <col min="34" max="35" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="36" max="53" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="36" max="40" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="43" max="47" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="50" max="53" width="5.375" bestFit="1" customWidth="1"/>
     <col min="54" max="58" width="4.375" bestFit="1" customWidth="1"/>
     <col min="59" max="65" width="5.375" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="6" bestFit="1" customWidth="1"/>
@@ -3022,240 +2738,240 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">TODAY()</f>
-        <v>43233</v>
-      </c>
-      <c r="K5" s="24" t="s">
+        <v>43247</v>
+      </c>
+      <c r="K5" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22">
+      <c r="M5" s="20"/>
+      <c r="N5" s="21">
         <f>DATE($C$23,$C$24,22)</f>
         <v>43212</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="21">
         <f>N5+1</f>
         <v>43213</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="21">
         <f t="shared" ref="P5:AN5" si="0">O5+1</f>
         <v>43214</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="21">
         <f t="shared" si="0"/>
         <v>43215</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="21">
         <f t="shared" si="0"/>
         <v>43216</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="21">
         <f t="shared" si="0"/>
         <v>43217</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="21">
         <f t="shared" si="0"/>
         <v>43218</v>
       </c>
-      <c r="U5" s="22">
+      <c r="U5" s="21">
         <f t="shared" si="0"/>
         <v>43219</v>
       </c>
-      <c r="V5" s="22">
+      <c r="V5" s="21">
         <f t="shared" si="0"/>
         <v>43220</v>
       </c>
-      <c r="W5" s="22">
+      <c r="W5" s="21">
         <f t="shared" si="0"/>
         <v>43221</v>
       </c>
-      <c r="X5" s="22">
+      <c r="X5" s="21">
         <f t="shared" si="0"/>
         <v>43222</v>
       </c>
-      <c r="Y5" s="23">
+      <c r="Y5" s="22">
         <f t="shared" si="0"/>
         <v>43223</v>
       </c>
-      <c r="Z5" s="23">
+      <c r="Z5" s="22">
         <f t="shared" si="0"/>
         <v>43224</v>
       </c>
-      <c r="AA5" s="22">
+      <c r="AA5" s="21">
         <f t="shared" si="0"/>
         <v>43225</v>
       </c>
-      <c r="AB5" s="22">
+      <c r="AB5" s="21">
         <f t="shared" si="0"/>
         <v>43226</v>
       </c>
-      <c r="AC5" s="22">
+      <c r="AC5" s="21">
         <f t="shared" si="0"/>
         <v>43227</v>
       </c>
-      <c r="AD5" s="22">
+      <c r="AD5" s="21">
         <f t="shared" si="0"/>
         <v>43228</v>
       </c>
-      <c r="AE5" s="22">
+      <c r="AE5" s="21">
         <f t="shared" si="0"/>
         <v>43229</v>
       </c>
-      <c r="AF5" s="22">
+      <c r="AF5" s="21">
         <f t="shared" si="0"/>
         <v>43230</v>
       </c>
-      <c r="AG5" s="22">
+      <c r="AG5" s="21">
         <f t="shared" si="0"/>
         <v>43231</v>
       </c>
-      <c r="AH5" s="22">
+      <c r="AH5" s="21">
         <f t="shared" si="0"/>
         <v>43232</v>
       </c>
-      <c r="AI5" s="22">
+      <c r="AI5" s="21">
         <f t="shared" si="0"/>
         <v>43233</v>
       </c>
-      <c r="AJ5" s="22">
+      <c r="AJ5" s="21">
         <f t="shared" si="0"/>
         <v>43234</v>
       </c>
-      <c r="AK5" s="22">
+      <c r="AK5" s="21">
         <f t="shared" si="0"/>
         <v>43235</v>
       </c>
-      <c r="AL5" s="22">
+      <c r="AL5" s="21">
         <f t="shared" si="0"/>
         <v>43236</v>
       </c>
-      <c r="AM5" s="22">
+      <c r="AM5" s="21">
         <f t="shared" si="0"/>
         <v>43237</v>
       </c>
-      <c r="AN5" s="22">
+      <c r="AN5" s="21">
         <f t="shared" si="0"/>
         <v>43238</v>
       </c>
-      <c r="AO5" s="22">
+      <c r="AO5" s="21">
         <f>AN5+1</f>
         <v>43239</v>
       </c>
-      <c r="AP5" s="22">
+      <c r="AP5" s="21">
         <f t="shared" ref="AP5:BB5" si="1">AO5+1</f>
         <v>43240</v>
       </c>
-      <c r="AQ5" s="22">
+      <c r="AQ5" s="21">
         <f t="shared" si="1"/>
         <v>43241</v>
       </c>
-      <c r="AR5" s="22">
+      <c r="AR5" s="21">
         <f t="shared" si="1"/>
         <v>43242</v>
       </c>
-      <c r="AS5" s="22">
+      <c r="AS5" s="21">
         <f t="shared" si="1"/>
         <v>43243</v>
       </c>
-      <c r="AT5" s="22">
+      <c r="AT5" s="21">
         <f t="shared" si="1"/>
         <v>43244</v>
       </c>
-      <c r="AU5" s="22">
+      <c r="AU5" s="21">
         <f t="shared" si="1"/>
         <v>43245</v>
       </c>
-      <c r="AV5" s="22">
+      <c r="AV5" s="21">
         <f t="shared" si="1"/>
         <v>43246</v>
       </c>
-      <c r="AW5" s="22">
+      <c r="AW5" s="21">
         <f t="shared" si="1"/>
         <v>43247</v>
       </c>
-      <c r="AX5" s="22">
+      <c r="AX5" s="21">
         <f t="shared" si="1"/>
         <v>43248</v>
       </c>
-      <c r="AY5" s="22">
+      <c r="AY5" s="21">
         <f t="shared" si="1"/>
         <v>43249</v>
       </c>
-      <c r="AZ5" s="22">
+      <c r="AZ5" s="21">
         <f t="shared" si="1"/>
         <v>43250</v>
       </c>
-      <c r="BA5" s="22">
+      <c r="BA5" s="21">
         <f t="shared" si="1"/>
         <v>43251</v>
       </c>
-      <c r="BB5" s="22">
+      <c r="BB5" s="21">
         <f t="shared" si="1"/>
         <v>43252</v>
       </c>
-      <c r="BC5" s="22">
+      <c r="BC5" s="21">
         <f t="shared" ref="BC5" si="2">BB5+1</f>
         <v>43253</v>
       </c>
-      <c r="BD5" s="22">
+      <c r="BD5" s="21">
         <f t="shared" ref="BD5" si="3">BC5+1</f>
         <v>43254</v>
       </c>
-      <c r="BE5" s="22">
+      <c r="BE5" s="21">
         <f t="shared" ref="BE5" si="4">BD5+1</f>
         <v>43255</v>
       </c>
-      <c r="BF5" s="22">
+      <c r="BF5" s="21">
         <f t="shared" ref="BF5" si="5">BE5+1</f>
         <v>43256</v>
       </c>
-      <c r="BG5" s="22">
+      <c r="BG5" s="21">
         <f t="shared" ref="BG5" si="6">BF5+1</f>
         <v>43257</v>
       </c>
-      <c r="BH5" s="22">
+      <c r="BH5" s="21">
         <f t="shared" ref="BH5" si="7">BG5+1</f>
         <v>43258</v>
       </c>
-      <c r="BI5" s="22">
+      <c r="BI5" s="21">
         <f t="shared" ref="BI5" si="8">BH5+1</f>
         <v>43259</v>
       </c>
-      <c r="BJ5" s="22">
+      <c r="BJ5" s="21">
         <f t="shared" ref="BJ5" si="9">BI5+1</f>
         <v>43260</v>
       </c>
-      <c r="BK5" s="22">
+      <c r="BK5" s="21">
         <f t="shared" ref="BK5" si="10">BJ5+1</f>
         <v>43261</v>
       </c>
-      <c r="BL5" s="22">
+      <c r="BL5" s="21">
         <f t="shared" ref="BL5" si="11">BK5+1</f>
         <v>43262</v>
       </c>
-      <c r="BM5" s="22">
+      <c r="BM5" s="21">
         <f t="shared" ref="BM5" si="12">BL5+1</f>
         <v>43263</v>
       </c>
-      <c r="BN5" s="22">
+      <c r="BN5" s="21">
         <f t="shared" ref="BN5" si="13">BM5+1</f>
         <v>43264</v>
       </c>
-      <c r="BO5" s="22">
+      <c r="BO5" s="21">
         <f t="shared" ref="BO5" si="14">BN5+1</f>
         <v>43265</v>
       </c>
-      <c r="BP5" s="22">
+      <c r="BP5" s="21">
         <f t="shared" ref="BP5" si="15">BO5+1</f>
         <v>43266</v>
       </c>
-      <c r="BQ5" s="22">
+      <c r="BQ5" s="21">
         <f t="shared" ref="BQ5" si="16">BP5+1</f>
         <v>43267</v>
       </c>
-      <c r="BR5" s="22">
+      <c r="BR5" s="21">
         <f t="shared" ref="BR5" si="17">BQ5+1</f>
         <v>43268</v>
       </c>
@@ -3270,237 +2986,237 @@
       <c r="K6" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="N6" s="19" t="str">
+      <c r="N6" s="18" t="str">
         <f>TEXT(N5,"aaa")</f>
         <v>日</v>
       </c>
-      <c r="O6" s="19" t="str">
+      <c r="O6" s="18" t="str">
         <f t="shared" ref="O6:BB6" si="18">TEXT(O5,"aaa")</f>
         <v>月</v>
       </c>
-      <c r="P6" s="19" t="str">
+      <c r="P6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="Q6" s="19" t="str">
+      <c r="Q6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="R6" s="19" t="str">
+      <c r="R6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="S6" s="19" t="str">
+      <c r="S6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="T6" s="19" t="str">
+      <c r="T6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="U6" s="19" t="str">
+      <c r="U6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="V6" s="19" t="str">
+      <c r="V6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="W6" s="19" t="str">
+      <c r="W6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="X6" s="19" t="str">
+      <c r="X6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="Y6" s="20" t="str">
+      <c r="Y6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="Z6" s="20" t="str">
+      <c r="Z6" s="19" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="AA6" s="19" t="str">
+      <c r="AA6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="AB6" s="19" t="str">
+      <c r="AB6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="AC6" s="19" t="str">
+      <c r="AC6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="AD6" s="19" t="str">
+      <c r="AD6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="AE6" s="19" t="str">
+      <c r="AE6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="AF6" s="19" t="str">
+      <c r="AF6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="AG6" s="19" t="str">
+      <c r="AG6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="AH6" s="19" t="str">
+      <c r="AH6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="AI6" s="19" t="str">
+      <c r="AI6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="AJ6" s="19" t="str">
+      <c r="AJ6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="AK6" s="19" t="str">
+      <c r="AK6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="AL6" s="19" t="str">
+      <c r="AL6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="AM6" s="19" t="str">
+      <c r="AM6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="AN6" s="19" t="str">
+      <c r="AN6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="AO6" s="19" t="str">
+      <c r="AO6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="AP6" s="19" t="str">
+      <c r="AP6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="AQ6" s="19" t="str">
+      <c r="AQ6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="AR6" s="19" t="str">
+      <c r="AR6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="AS6" s="19" t="str">
+      <c r="AS6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="AT6" s="19" t="str">
+      <c r="AT6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="AU6" s="19" t="str">
+      <c r="AU6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="AV6" s="19" t="str">
+      <c r="AV6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>土</v>
       </c>
-      <c r="AW6" s="19" t="str">
+      <c r="AW6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>日</v>
       </c>
-      <c r="AX6" s="19" t="str">
+      <c r="AX6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>月</v>
       </c>
-      <c r="AY6" s="19" t="str">
+      <c r="AY6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>火</v>
       </c>
-      <c r="AZ6" s="19" t="str">
+      <c r="AZ6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>水</v>
       </c>
-      <c r="BA6" s="19" t="str">
+      <c r="BA6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>木</v>
       </c>
-      <c r="BB6" s="19" t="str">
+      <c r="BB6" s="18" t="str">
         <f t="shared" si="18"/>
         <v>金</v>
       </c>
-      <c r="BC6" s="19" t="str">
+      <c r="BC6" s="18" t="str">
         <f t="shared" ref="BC6:BR6" si="19">TEXT(BC5,"aaa")</f>
         <v>土</v>
       </c>
-      <c r="BD6" s="19" t="str">
+      <c r="BD6" s="18" t="str">
         <f t="shared" si="19"/>
         <v>日</v>
       </c>
-      <c r="BE6" s="19" t="str">
+      <c r="BE6" s="18" t="str">
         <f t="shared" si="19"/>
         <v>月</v>
       </c>
-      <c r="BF6" s="19" t="str">
+      <c r="BF6" s="18" t="str">
         <f t="shared" si="19"/>
         <v>火</v>
       </c>
-      <c r="BG6" s="19" t="str">
+      <c r="BG6" s="18" t="str">
         <f t="shared" si="19"/>
         <v>水</v>
       </c>
-      <c r="BH6" s="19" t="str">
+      <c r="BH6" s="18" t="str">
         <f t="shared" si="19"/>
         <v>木</v>
       </c>
-      <c r="BI6" s="19" t="str">
+      <c r="BI6" s="18" t="str">
         <f t="shared" si="19"/>
         <v>金</v>
       </c>
-      <c r="BJ6" s="19" t="str">
+      <c r="BJ6" s="18" t="str">
         <f t="shared" si="19"/>
         <v>土</v>
       </c>
-      <c r="BK6" s="19" t="str">
+      <c r="BK6" s="18" t="str">
         <f t="shared" si="19"/>
         <v>日</v>
       </c>
-      <c r="BL6" s="19" t="str">
+      <c r="BL6" s="18" t="str">
         <f t="shared" si="19"/>
         <v>月</v>
       </c>
-      <c r="BM6" s="19" t="str">
+      <c r="BM6" s="18" t="str">
         <f t="shared" si="19"/>
         <v>火</v>
       </c>
-      <c r="BN6" s="19" t="str">
+      <c r="BN6" s="18" t="str">
         <f t="shared" si="19"/>
         <v>水</v>
       </c>
-      <c r="BO6" s="19" t="str">
+      <c r="BO6" s="18" t="str">
         <f t="shared" si="19"/>
         <v>木</v>
       </c>
-      <c r="BP6" s="19" t="str">
+      <c r="BP6" s="18" t="str">
         <f t="shared" si="19"/>
         <v>金</v>
       </c>
-      <c r="BQ6" s="19" t="str">
+      <c r="BQ6" s="18" t="str">
         <f t="shared" si="19"/>
         <v>土</v>
       </c>
-      <c r="BR6" s="19" t="str">
+      <c r="BR6" s="18" t="str">
         <f t="shared" si="19"/>
         <v>日</v>
       </c>
@@ -3583,15 +3299,15 @@
       <c r="BR7" s="3"/>
     </row>
     <row r="8" spans="2:70">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="25">
+        <f ca="1">$C$7-$C$5</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>120</v>
-      </c>
-      <c r="C8" s="26">
-        <f ca="1">$C$7-$C$5</f>
-        <v>14</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>121</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
@@ -3666,29 +3382,29 @@
       <c r="BR8" s="3"/>
     </row>
     <row r="9" spans="2:70">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <f ca="1">$C$6-$C$5</f>
-        <v>35</v>
-      </c>
-      <c r="D9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L9" s="4">
         <f>SUM($N9:$BQ9)</f>
-        <v>26.25</v>
+        <v>36.5</v>
       </c>
       <c r="M9" s="16">
         <f ca="1">L9/(57-$C$9)</f>
-        <v>1.1931818181818181</v>
+        <v>1.0138888888888888</v>
       </c>
       <c r="N9" s="14">
         <v>1</v>
@@ -3756,20 +3472,48 @@
       <c r="AI9" s="14">
         <v>3</v>
       </c>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="14"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="14"/>
-      <c r="AT9" s="14"/>
-      <c r="AU9" s="14"/>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="14"/>
+      <c r="AJ9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AL9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="14">
+        <v>2</v>
+      </c>
+      <c r="AP9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AS9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="AU9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="14">
+        <v>4</v>
+      </c>
       <c r="AX9" s="14"/>
       <c r="AY9" s="14"/>
       <c r="AZ9" s="14"/>
@@ -3976,34 +3720,34 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N5:BR9">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>N$6="土"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>N$6="日"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:BR10">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>N$6="土"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>N$6="日"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:K10">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"申込済"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"未申込"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>14</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4066,7 +3810,7 @@
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="27" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="11"/>
@@ -4081,7 +3825,7 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="C6" s="17"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="11"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -4094,7 +3838,7 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="C7" s="17"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="11"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -4107,7 +3851,7 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="C8" s="17"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="11"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -4120,7 +3864,7 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="C9" s="17"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="11"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -4133,7 +3877,7 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="C10" s="17"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="11"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -4146,7 +3890,7 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="C11" s="17"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="11"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4159,7 +3903,7 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="C12" s="17"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="11"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4172,7 +3916,7 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="C13" s="17"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="11"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4185,7 +3929,7 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="C14" s="17"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="11"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4198,7 +3942,7 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="C15" s="17"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="11"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -4211,7 +3955,7 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="C16" s="17"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="11"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4224,7 +3968,7 @@
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="3:13">
-      <c r="C17" s="17"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="11"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>

--- a/サーティファイC言語検定_1級.xlsx
+++ b/サーティファイC言語検定_1級.xlsx
@@ -1811,16 +1811,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未達成/完了</t>
-    <rPh sb="0" eb="3">
-      <t>ミタッセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>申込まで</t>
     <rPh sb="0" eb="2">
       <t>モウシコミ</t>
@@ -1836,6 +1826,13 @@
   </si>
   <si>
     <t>申込済</t>
+  </si>
+  <si>
+    <t>未申請/申込済</t>
+    <rPh sb="0" eb="3">
+      <t>ミシンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1847,7 +1844,7 @@
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1889,8 +1886,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1913,6 +1918,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1994,12 +2004,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2084,8 +2097,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="悪い" xfId="1" builtinId="27"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -2677,7 +2694,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="13" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2703,7 +2720,8 @@
     <col min="41" max="42" width="6.375" bestFit="1" customWidth="1"/>
     <col min="43" max="47" width="5.5" bestFit="1" customWidth="1"/>
     <col min="48" max="49" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="50" max="53" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="5.375" bestFit="1" customWidth="1"/>
     <col min="54" max="58" width="4.375" bestFit="1" customWidth="1"/>
     <col min="59" max="65" width="5.375" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="6" bestFit="1" customWidth="1"/>
@@ -2738,7 +2756,7 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">TODAY()</f>
-        <v>43247</v>
+        <v>43250</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>116</v>
@@ -2984,7 +3002,7 @@
         <v>43268</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L6" s="17" t="s">
         <v>9</v>
@@ -3300,14 +3318,13 @@
     </row>
     <row r="8" spans="2:70">
       <c r="B8" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>119</v>
-      </c>
-      <c r="C8" s="25">
-        <f ca="1">$C$7-$C$5</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>120</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
@@ -3387,7 +3404,7 @@
       </c>
       <c r="C9" s="25">
         <f ca="1">$C$6-$C$5</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>3</v>
@@ -3396,15 +3413,15 @@
         <v>11</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L9" s="4">
         <f>SUM($N9:$BQ9)</f>
-        <v>36.5</v>
+        <v>37.5</v>
       </c>
       <c r="M9" s="16">
         <f ca="1">L9/(57-$C$9)</f>
-        <v>1.0138888888888888</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="N9" s="14">
         <v>1</v>
@@ -3514,8 +3531,12 @@
       <c r="AW9" s="14">
         <v>4</v>
       </c>
-      <c r="AX9" s="14"/>
-      <c r="AY9" s="14"/>
+      <c r="AX9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="14">
+        <v>1</v>
+      </c>
       <c r="AZ9" s="14"/>
       <c r="BA9" s="14"/>
       <c r="BB9" s="14"/>
@@ -3743,7 +3764,7 @@
       <formula>"未申込"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C9">
+  <conditionalFormatting sqref="C9">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>7</formula>
     </cfRule>

--- a/サーティファイC言語検定_1級.xlsx
+++ b/サーティファイC言語検定_1級.xlsx
@@ -2094,11 +2094,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2720,9 +2720,9 @@
     <col min="41" max="42" width="6.375" bestFit="1" customWidth="1"/>
     <col min="43" max="47" width="5.5" bestFit="1" customWidth="1"/>
     <col min="48" max="49" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="54" max="58" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="50" max="54" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="56" max="58" width="4.375" bestFit="1" customWidth="1"/>
     <col min="59" max="65" width="5.375" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="6" bestFit="1" customWidth="1"/>
     <col min="67" max="68" width="5.375" bestFit="1" customWidth="1"/>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">TODAY()</f>
-        <v>43250</v>
+        <v>43253</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>116</v>
@@ -3320,7 +3320,7 @@
       <c r="B8" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <v>0</v>
       </c>
       <c r="D8" s="26" t="s">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C9" s="25">
         <f ca="1">$C$6-$C$5</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>3</v>
@@ -3417,11 +3417,11 @@
       </c>
       <c r="L9" s="4">
         <f>SUM($N9:$BQ9)</f>
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="M9" s="16">
         <f ca="1">L9/(57-$C$9)</f>
-        <v>0.96153846153846156</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="N9" s="14">
         <v>1</v>
@@ -3537,10 +3537,18 @@
       <c r="AY9" s="14">
         <v>1</v>
       </c>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="14"/>
-      <c r="BB9" s="14"/>
-      <c r="BC9" s="14"/>
+      <c r="AZ9" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="BA9" s="14">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="14">
+        <v>1</v>
+      </c>
       <c r="BD9" s="14"/>
       <c r="BE9" s="14"/>
       <c r="BF9" s="14"/>
@@ -3831,7 +3839,7 @@
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="11"/>
@@ -3846,7 +3854,7 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="C6" s="27"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="11"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -3859,7 +3867,7 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="C7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="11"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -3872,7 +3880,7 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="C8" s="27"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="11"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -3885,7 +3893,7 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="C9" s="27"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="11"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -3898,7 +3906,7 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="C10" s="27"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="11"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -3911,7 +3919,7 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="C11" s="27"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="11"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3924,7 +3932,7 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="C12" s="27"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="11"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3937,7 +3945,7 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="C13" s="27"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="11"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3950,7 +3958,7 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="C14" s="27"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="11"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3963,7 +3971,7 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="C15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="11"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3976,7 +3984,7 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="C16" s="27"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="11"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3989,7 +3997,7 @@
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="3:13">
-      <c r="C17" s="27"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="11"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>

--- a/サーティファイC言語検定_1級.xlsx
+++ b/サーティファイC言語検定_1級.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="123">
   <si>
     <t>本日</t>
     <rPh sb="0" eb="2">
@@ -1833,6 +1833,9 @@
       <t>ミシンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未申込</t>
   </si>
 </sst>
 </file>
@@ -2693,8 +2696,8 @@
   <dimension ref="B2:BR29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="13" topLeftCell="AX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2721,8 +2724,8 @@
     <col min="43" max="47" width="5.5" bestFit="1" customWidth="1"/>
     <col min="48" max="49" width="6.375" bestFit="1" customWidth="1"/>
     <col min="50" max="54" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="56" max="58" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="4.375" bestFit="1" customWidth="1"/>
     <col min="59" max="65" width="5.375" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="6" bestFit="1" customWidth="1"/>
     <col min="67" max="68" width="5.375" bestFit="1" customWidth="1"/>
@@ -2756,7 +2759,7 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">TODAY()</f>
-        <v>43253</v>
+        <v>43254</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>116</v>
@@ -3249,7 +3252,9 @@
       <c r="J7" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="L7" s="4">
         <f>SUM($N7:$BQ7)</f>
         <v>0</v>
@@ -3404,7 +3409,7 @@
       </c>
       <c r="C9" s="25">
         <f ca="1">$C$6-$C$5</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>3</v>
@@ -3417,11 +3422,11 @@
       </c>
       <c r="L9" s="4">
         <f>SUM($N9:$BQ9)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M9" s="16">
         <f ca="1">L9/(57-$C$9)</f>
-        <v>0.95238095238095233</v>
+        <v>1</v>
       </c>
       <c r="N9" s="14">
         <v>1</v>
@@ -3549,7 +3554,9 @@
       <c r="BC9" s="14">
         <v>1</v>
       </c>
-      <c r="BD9" s="14"/>
+      <c r="BD9" s="14">
+        <v>3</v>
+      </c>
       <c r="BE9" s="14"/>
       <c r="BF9" s="14"/>
       <c r="BG9" s="14"/>

--- a/サーティファイC言語検定_1級.xlsx
+++ b/サーティファイC言語検定_1級.xlsx
@@ -2696,8 +2696,8 @@
   <dimension ref="B2:BR29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" topLeftCell="AX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K8" sqref="K8"/>
+      <pane xSplit="13" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AZ9" sqref="AZ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2725,7 +2725,7 @@
     <col min="48" max="49" width="6.375" bestFit="1" customWidth="1"/>
     <col min="50" max="54" width="5.5" bestFit="1" customWidth="1"/>
     <col min="55" max="56" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="5.5" bestFit="1" customWidth="1"/>
     <col min="59" max="65" width="5.375" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="6" bestFit="1" customWidth="1"/>
     <col min="67" max="68" width="5.375" bestFit="1" customWidth="1"/>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">TODAY()</f>
-        <v>43254</v>
+        <v>43257</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>116</v>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="C9" s="25">
         <f ca="1">$C$6-$C$5</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>3</v>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="L9" s="4">
         <f>SUM($N9:$BQ9)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M9" s="16">
         <f ca="1">L9/(57-$C$9)</f>
-        <v>1</v>
+        <v>0.97826086956521741</v>
       </c>
       <c r="N9" s="14">
         <v>1</v>
@@ -3557,8 +3557,12 @@
       <c r="BD9" s="14">
         <v>3</v>
       </c>
-      <c r="BE9" s="14"/>
-      <c r="BF9" s="14"/>
+      <c r="BE9" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="14">
+        <v>2</v>
+      </c>
       <c r="BG9" s="14"/>
       <c r="BH9" s="14"/>
       <c r="BI9" s="14"/>

--- a/サーティファイC言語検定_1級.xlsx
+++ b/サーティファイC言語検定_1級.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="123">
   <si>
     <t>本日</t>
     <rPh sb="0" eb="2">
@@ -2696,8 +2696,8 @@
   <dimension ref="B2:BR29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ9" sqref="AZ9"/>
+      <pane xSplit="13" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2725,8 +2725,8 @@
     <col min="48" max="49" width="6.375" bestFit="1" customWidth="1"/>
     <col min="50" max="54" width="5.5" bestFit="1" customWidth="1"/>
     <col min="55" max="56" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="65" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="57" max="60" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="65" width="5.375" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="6" bestFit="1" customWidth="1"/>
     <col min="67" max="68" width="5.375" bestFit="1" customWidth="1"/>
     <col min="69" max="70" width="6" bestFit="1" customWidth="1"/>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">TODAY()</f>
-        <v>43257</v>
+        <v>43259</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>116</v>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="C9" s="25">
         <f ca="1">$C$6-$C$5</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>3</v>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="L9" s="4">
         <f>SUM($N9:$BQ9)</f>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M9" s="16">
         <f ca="1">L9/(57-$C$9)</f>
-        <v>0.97826086956521741</v>
+        <v>1.0208333333333333</v>
       </c>
       <c r="N9" s="14">
         <v>1</v>
@@ -3563,8 +3563,12 @@
       <c r="BF9" s="14">
         <v>2</v>
       </c>
-      <c r="BG9" s="14"/>
-      <c r="BH9" s="14"/>
+      <c r="BG9" s="14">
+        <v>2</v>
+      </c>
+      <c r="BH9" s="14">
+        <v>2</v>
+      </c>
       <c r="BI9" s="14"/>
       <c r="BJ9" s="14"/>
       <c r="BK9" s="14"/>
@@ -3580,7 +3584,9 @@
       <c r="J10" t="s">
         <v>117</v>
       </c>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="L10" s="4">
         <f>SUM($N10:$BQ10)</f>
         <v>0</v>

--- a/サーティファイC言語検定_1級.xlsx
+++ b/サーティファイC言語検定_1級.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="123">
   <si>
     <t>本日</t>
     <rPh sb="0" eb="2">
@@ -2696,8 +2696,8 @@
   <dimension ref="B2:BR29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L8" sqref="L8"/>
+      <pane xSplit="13" topLeftCell="BK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2725,8 +2725,11 @@
     <col min="48" max="49" width="6.375" bestFit="1" customWidth="1"/>
     <col min="50" max="54" width="5.5" bestFit="1" customWidth="1"/>
     <col min="55" max="56" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="57" max="60" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="61" max="65" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="57" max="61" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="5.375" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="6" bestFit="1" customWidth="1"/>
     <col min="67" max="68" width="5.375" bestFit="1" customWidth="1"/>
     <col min="69" max="70" width="6" bestFit="1" customWidth="1"/>
@@ -2759,7 +2762,7 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">TODAY()</f>
-        <v>43259</v>
+        <v>43263</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>116</v>
@@ -3334,7 +3337,9 @@
       <c r="J8" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="L8" s="4">
         <f>SUM($N8:$BQ8)</f>
         <v>0</v>
@@ -3409,7 +3414,7 @@
       </c>
       <c r="C9" s="25">
         <f ca="1">$C$6-$C$5</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>3</v>
@@ -3422,11 +3427,11 @@
       </c>
       <c r="L9" s="4">
         <f>SUM($N9:$BQ9)</f>
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="M9" s="16">
         <f ca="1">L9/(57-$C$9)</f>
-        <v>1.0208333333333333</v>
+        <v>1.1538461538461537</v>
       </c>
       <c r="N9" s="14">
         <v>1</v>
@@ -3569,10 +3574,18 @@
       <c r="BH9" s="14">
         <v>2</v>
       </c>
-      <c r="BI9" s="14"/>
-      <c r="BJ9" s="14"/>
-      <c r="BK9" s="14"/>
-      <c r="BL9" s="14"/>
+      <c r="BI9" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="14">
+        <v>6</v>
+      </c>
+      <c r="BK9" s="14">
+        <v>4</v>
+      </c>
+      <c r="BL9" s="14">
+        <v>1</v>
+      </c>
       <c r="BM9" s="14"/>
       <c r="BN9" s="14"/>
       <c r="BO9" s="14"/>

--- a/サーティファイC言語検定_1級.xlsx
+++ b/サーティファイC言語検定_1級.xlsx
@@ -2697,7 +2697,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="13" topLeftCell="BK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K8" sqref="K8"/>
+      <selection pane="topRight" activeCell="BM9" sqref="BM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2728,8 +2728,7 @@
     <col min="57" max="61" width="5.5" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="6.375" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="5.5" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="6" bestFit="1" customWidth="1"/>
     <col min="67" max="68" width="5.375" bestFit="1" customWidth="1"/>
     <col min="69" max="70" width="6" bestFit="1" customWidth="1"/>
@@ -2762,7 +2761,7 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">TODAY()</f>
-        <v>43263</v>
+        <v>43264</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>116</v>
@@ -3414,7 +3413,7 @@
       </c>
       <c r="C9" s="25">
         <f ca="1">$C$6-$C$5</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>3</v>
@@ -3427,11 +3426,11 @@
       </c>
       <c r="L9" s="4">
         <f>SUM($N9:$BQ9)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M9" s="16">
         <f ca="1">L9/(57-$C$9)</f>
-        <v>1.1538461538461537</v>
+        <v>1.1509433962264151</v>
       </c>
       <c r="N9" s="14">
         <v>1</v>
@@ -3586,7 +3585,9 @@
       <c r="BL9" s="14">
         <v>1</v>
       </c>
-      <c r="BM9" s="14"/>
+      <c r="BM9" s="14">
+        <v>1</v>
+      </c>
       <c r="BN9" s="14"/>
       <c r="BO9" s="14"/>
       <c r="BP9" s="14"/>

--- a/サーティファイC言語検定_1級.xlsx
+++ b/サーティファイC言語検定_1級.xlsx
@@ -2697,7 +2697,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="13" topLeftCell="BK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM9" sqref="BM9"/>
+      <selection pane="topRight" activeCell="BL9" sqref="BL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">TODAY()</f>
-        <v>43264</v>
+        <v>43265</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>116</v>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="C9" s="25">
         <f ca="1">$C$6-$C$5</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>3</v>
@@ -3426,11 +3426,11 @@
       </c>
       <c r="L9" s="4">
         <f>SUM($N9:$BQ9)</f>
-        <v>61</v>
+        <v>63.5</v>
       </c>
       <c r="M9" s="16">
         <f ca="1">L9/(57-$C$9)</f>
-        <v>1.1509433962264151</v>
+        <v>1.1759259259259258</v>
       </c>
       <c r="N9" s="14">
         <v>1</v>
@@ -3586,9 +3586,11 @@
         <v>1</v>
       </c>
       <c r="BM9" s="14">
-        <v>1</v>
-      </c>
-      <c r="BN9" s="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="BN9" s="14">
+        <v>2</v>
+      </c>
       <c r="BO9" s="14"/>
       <c r="BP9" s="14"/>
       <c r="BQ9" s="14"/>

--- a/サーティファイC言語検定_1級.xlsx
+++ b/サーティファイC言語検定_1級.xlsx
@@ -2697,7 +2697,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="13" topLeftCell="BK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BL9" sqref="BL9"/>
+      <selection pane="topRight" activeCell="BQ9" sqref="BQ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2730,7 +2730,7 @@
     <col min="63" max="63" width="7.5" bestFit="1" customWidth="1"/>
     <col min="64" max="65" width="5.5" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="6" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="5.5" bestFit="1" customWidth="1"/>
     <col min="69" max="70" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43267</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>116</v>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="C9" s="25">
         <f ca="1">$C$6-$C$5</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>3</v>
@@ -3426,11 +3426,11 @@
       </c>
       <c r="L9" s="4">
         <f>SUM($N9:$BQ9)</f>
-        <v>63.5</v>
+        <v>65</v>
       </c>
       <c r="M9" s="16">
         <f ca="1">L9/(57-$C$9)</f>
-        <v>1.1759259259259258</v>
+        <v>1.1607142857142858</v>
       </c>
       <c r="N9" s="14">
         <v>1</v>
@@ -3591,8 +3591,12 @@
       <c r="BN9" s="14">
         <v>2</v>
       </c>
-      <c r="BO9" s="14"/>
-      <c r="BP9" s="14"/>
+      <c r="BO9" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="BP9" s="14">
+        <v>0</v>
+      </c>
       <c r="BQ9" s="14"/>
       <c r="BR9" s="3"/>
     </row>
